--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547B5F9-AFAA-41B9-BE80-0552CF222765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{235EF903-4374-4F90-91BA-873FC60B3E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="11265" yWindow="1725" windowWidth="25080" windowHeight="12270" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -9489,8 +9489,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -9664,7 +9664,7 @@
         <v>1277</v>
       </c>
       <c r="C20" s="53">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16096,7 +16096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -37538,410 +37540,410 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="100" priority="93">
+    <cfRule type="expression" dxfId="149" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="93">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="94">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="98" priority="57">
+    <cfRule type="expression" dxfId="147" priority="58">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="57">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="58">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="97" priority="55">
+    <cfRule type="expression" dxfId="145" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="56">
+    <cfRule type="expression" dxfId="144" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="94" priority="53">
+    <cfRule type="expression" dxfId="143" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="93" priority="51">
+    <cfRule type="expression" dxfId="141" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="52">
+    <cfRule type="expression" dxfId="140" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="91" priority="49">
+    <cfRule type="expression" dxfId="139" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="50">
+    <cfRule type="expression" dxfId="138" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="89" priority="47">
+    <cfRule type="expression" dxfId="137" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="48">
+    <cfRule type="expression" dxfId="136" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="86" priority="45">
+    <cfRule type="expression" dxfId="135" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="84" priority="43">
+    <cfRule type="expression" dxfId="133" priority="44">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="82" priority="41">
+    <cfRule type="expression" dxfId="131" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="80" priority="39">
+    <cfRule type="expression" dxfId="129" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="79" priority="37">
+    <cfRule type="expression" dxfId="127" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="38">
+    <cfRule type="expression" dxfId="126" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="77" priority="35">
+    <cfRule type="expression" dxfId="125" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="36">
+    <cfRule type="expression" dxfId="124" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="75" priority="33">
+    <cfRule type="expression" dxfId="123" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="34">
+    <cfRule type="expression" dxfId="122" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="73" priority="31">
+    <cfRule type="expression" dxfId="121" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="32">
+    <cfRule type="expression" dxfId="120" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="70" priority="29">
+    <cfRule type="expression" dxfId="119" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="69" priority="27">
+    <cfRule type="expression" dxfId="117" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="28">
+    <cfRule type="expression" dxfId="116" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="67" priority="25">
+    <cfRule type="expression" dxfId="115" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="26">
+    <cfRule type="expression" dxfId="114" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="64" priority="23">
+    <cfRule type="expression" dxfId="113" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="62" priority="21">
+    <cfRule type="expression" dxfId="111" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="61" priority="19">
+    <cfRule type="expression" dxfId="109" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="20">
+    <cfRule type="expression" dxfId="108" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="59" priority="17">
+    <cfRule type="expression" dxfId="107" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="18">
+    <cfRule type="expression" dxfId="106" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="57" priority="15">
+    <cfRule type="expression" dxfId="105" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="16">
+    <cfRule type="expression" dxfId="104" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="54" priority="13">
+    <cfRule type="expression" dxfId="103" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="53" priority="11">
+    <cfRule type="expression" dxfId="101" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="100" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="50" priority="9">
+    <cfRule type="expression" dxfId="99" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="97" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="94" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="93" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="92" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="91" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="40" priority="101">
+    <cfRule type="expression" dxfId="89" priority="102">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="101">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="102">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="38" priority="99">
+    <cfRule type="expression" dxfId="87" priority="100">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="99">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="100">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="36" priority="97">
+    <cfRule type="expression" dxfId="85" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="97">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="98">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="34" priority="95">
+    <cfRule type="expression" dxfId="83" priority="96">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="95">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="96">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="32" priority="91">
+    <cfRule type="expression" dxfId="81" priority="92">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="91">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="92">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="31" priority="89">
+    <cfRule type="expression" dxfId="79" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="90">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="29" priority="87">
+    <cfRule type="expression" dxfId="77" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="88">
+    <cfRule type="expression" dxfId="76" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="27" priority="85">
+    <cfRule type="expression" dxfId="75" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="86">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="25" priority="83">
+    <cfRule type="expression" dxfId="73" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="84">
+    <cfRule type="expression" dxfId="72" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="23" priority="81">
+    <cfRule type="expression" dxfId="71" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="82">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="21" priority="79">
+    <cfRule type="expression" dxfId="69" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="80">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="19" priority="77">
+    <cfRule type="expression" dxfId="67" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="78">
+    <cfRule type="expression" dxfId="66" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="17" priority="75">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="76">
+    <cfRule type="expression" dxfId="64" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="14" priority="73">
+    <cfRule type="expression" dxfId="63" priority="74">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="73">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="12" priority="71">
+    <cfRule type="expression" dxfId="61" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="71">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="72">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="10" priority="69">
+    <cfRule type="expression" dxfId="59" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="69">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="8" priority="67">
+    <cfRule type="expression" dxfId="57" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="68">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="6" priority="65">
+    <cfRule type="expression" dxfId="55" priority="66">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="65">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="66">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="5" priority="63">
+    <cfRule type="expression" dxfId="53" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="64">
+    <cfRule type="expression" dxfId="52" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="3" priority="61">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="62">
+    <cfRule type="expression" dxfId="50" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="49" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="60">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46160,194 +46162,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="149" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="147" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="145" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="143" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="141" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="139" priority="48">
+    <cfRule type="expression" dxfId="37" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="47">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="137" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="33">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="135" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="133" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="131" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="27">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="129" priority="25">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="127" priority="24">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="125" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="21">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="123" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="121" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="119" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="117" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="115" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="113" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="111" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="109" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="107" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="46">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="105" priority="43">
+    <cfRule type="expression" dxfId="3" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="44">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="103" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="42">
+    <cfRule type="expression" dxfId="0" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CDDA48-E753-4852-9B98-2B141272C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B14A0A-F683-4E03-8629-3E43D9C6EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="人工標音字庫" sheetId="277" r:id="rId2"/>
-    <sheet name="標音字庫" sheetId="297" r:id="rId3"/>
-    <sheet name="缺字表" sheetId="296" r:id="rId4"/>
+    <sheet name="標音字庫" sheetId="303" r:id="rId3"/>
+    <sheet name="缺字表" sheetId="302" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (白話音)" sheetId="279" r:id="rId6"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId7"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="1685">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4067,9 +4067,6 @@
     <t>怕</t>
   </si>
   <si>
-    <t>phah4</t>
-  </si>
-  <si>
     <t>林</t>
   </si>
   <si>
@@ -5456,14 +5453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pah7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iap8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5620,51 +5609,6 @@
     <t>Ú</t>
   </si>
   <si>
-    <t>(5, 4); (5, 4); (5, 4); (5, 4)</t>
-  </si>
-  <si>
-    <t>(5, 5); (5, 5); (5, 5); (5, 5)</t>
-  </si>
-  <si>
-    <t>(5, 7); (5, 7); (5, 7); (5, 7)</t>
-  </si>
-  <si>
-    <t>(5, 9); (5, 9); (5, 9); (5, 9)</t>
-  </si>
-  <si>
-    <t>(5, 10); (5, 10); (5, 10); (5, 10)</t>
-  </si>
-  <si>
-    <t>(5, 12); (5, 12); (5, 12); (5, 12)</t>
-  </si>
-  <si>
-    <t>(5, 14); (5, 14); (5, 14); (5, 14); (33, 18)</t>
-  </si>
-  <si>
-    <t>(5, 18); (5, 18); (5, 18); (5, 18)</t>
-  </si>
-  <si>
-    <t>(9, 4); (9, 4); (9, 4); (57, 13); (9, 4); (57, 13)</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 6); (9, 6); (9, 6)</t>
-  </si>
-  <si>
-    <t>(9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18)</t>
-  </si>
-  <si>
-    <t>(9, 9); (9, 9); (9, 9); (9, 9)</t>
-  </si>
-  <si>
-    <t>(9, 13); (9, 13); (9, 13); (9, 13)</t>
-  </si>
-  <si>
-    <t>(13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6)</t>
-  </si>
-  <si>
-    <t>(13, 8); (13, 8); (13, 8); (13, 8)</t>
-  </si>
-  <si>
     <t>zzit8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5681,12 +5625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(5, 14); (5, 16); (33, 18); (57, 18)</t>
-  </si>
-  <si>
-    <t>(9, 4); (57, 13)</t>
-  </si>
-  <si>
     <t>wu3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5699,20 +5637,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yiap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yit7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yia6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>yap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ya6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tánn</t>
+  </si>
+  <si>
+    <t>(5, 4); (5, 4)</t>
+  </si>
+  <si>
+    <t>(5, 5); (5, 5)</t>
+  </si>
+  <si>
+    <t>(5, 7); (5, 7)</t>
+  </si>
+  <si>
+    <t>(5, 9); (5, 9)</t>
+  </si>
+  <si>
+    <t>(5, 10); (5, 10)</t>
+  </si>
+  <si>
+    <t>(5, 12); (5, 12)</t>
+  </si>
+  <si>
+    <t>(5, 14); (5, 16); (33, 18); (57, 18); (5, 14); (5, 16); (33, 18)</t>
+  </si>
+  <si>
+    <t>(5, 18); (5, 18)</t>
+  </si>
+  <si>
+    <t>(9, 4); (57, 13); (9, 4); (57, 13)</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 6)</t>
+  </si>
+  <si>
+    <t>(9, 7); (21, 18); (9, 7); (21, 18)</t>
+  </si>
+  <si>
+    <t>(9, 9); (9, 9)</t>
+  </si>
+  <si>
+    <t>(9, 13); (9, 13)</t>
+  </si>
+  <si>
+    <t>(13, 5); (61, 6); (13, 5); (61, 6)</t>
+  </si>
+  <si>
+    <t>(13, 8); (13, 8)</t>
+  </si>
+  <si>
+    <t>(5, 4); (5, 4); (5, 4); (5, 4); (5, 4)</t>
+  </si>
+  <si>
+    <t>(5, 5); (5, 5); (5, 5); (5, 5); (5, 5)</t>
+  </si>
+  <si>
+    <t>(5, 7); (5, 7); (5, 7); (5, 7); (5, 7)</t>
+  </si>
+  <si>
+    <t>(5, 9); (5, 9); (5, 9); (5, 9); (5, 9)</t>
+  </si>
+  <si>
+    <t>(5, 10); (5, 10); (5, 10); (5, 10); (5, 10)</t>
+  </si>
+  <si>
+    <t>(5, 12); (5, 12); (5, 12); (5, 12); (5, 12)</t>
+  </si>
+  <si>
+    <t>(5, 14); (5, 14); (5, 14); (5, 14); (33, 18); (5, 14); (5, 16); (33, 18)</t>
+  </si>
+  <si>
+    <t>(5, 18); (5, 18); (5, 18); (5, 18); (5, 18)</t>
+  </si>
+  <si>
+    <t>(9, 4); (9, 4); (9, 4); (57, 13); (9, 4); (57, 13); (9, 4); (57, 13)</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 6); (9, 6); (9, 6); (9, 6)</t>
+  </si>
+  <si>
+    <t>(9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18)</t>
+  </si>
+  <si>
+    <t>(9, 9); (9, 9); (9, 9); (9, 9); (9, 9)</t>
+  </si>
+  <si>
+    <t>(9, 13); (9, 13); (9, 13); (9, 13); (9, 13)</t>
+  </si>
+  <si>
+    <t>(13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6)</t>
+  </si>
+  <si>
+    <t>(13, 8); (13, 8); (13, 8); (13, 8); (13, 8)</t>
+  </si>
+  <si>
+    <t>(21, 8); (21, 8); (21, 8)</t>
+  </si>
+  <si>
+    <t>(5, 13); (5, 13); (5, 13)</t>
+  </si>
+  <si>
+    <t>(5, 17); (5, 17); (5, 17)</t>
+  </si>
+  <si>
+    <t>(9, 18); (9, 18); (9, 18)</t>
   </si>
 </sst>
 </file>
@@ -6151,7 +6194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6353,13 +6396,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10976,7 +11013,7 @@
     </row>
     <row r="2" spans="2:11" ht="30">
       <c r="B2" s="47" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C2" s="50">
         <v>1</v>
@@ -10984,10 +11021,10 @@
     </row>
     <row r="3" spans="2:11" ht="30">
       <c r="B3" s="47" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>1428</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -11001,7 +11038,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -11009,7 +11046,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -11017,7 +11054,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -11033,7 +11070,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="30">
@@ -11041,7 +11078,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -11073,7 +11110,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -11081,7 +11118,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -11089,7 +11126,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -11097,7 +11134,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -11105,7 +11142,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -11113,7 +11150,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -11121,12 +11158,12 @@
         <v>17</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="47" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C20" s="53">
         <v>0</v>
@@ -15419,7 +15456,7 @@
         <v>1161</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>1173</v>
@@ -15428,7 +15465,7 @@
         <v>1173</v>
       </c>
       <c r="E2" t="s">
-        <v>1642</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -15436,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>386</v>
@@ -15445,7 +15482,7 @@
         <v>386</v>
       </c>
       <c r="E3" t="s">
-        <v>1643</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -15453,16 +15490,16 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D4" t="s">
         <v>395</v>
       </c>
       <c r="E4" t="s">
-        <v>1644</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -15470,16 +15507,16 @@
         <v>222</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E5" t="s">
-        <v>1645</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -15487,7 +15524,7 @@
         <v>116</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>346</v>
@@ -15496,7 +15533,7 @@
         <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>1646</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -15504,7 +15541,7 @@
         <v>1163</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>1171</v>
@@ -15513,7 +15550,7 @@
         <v>1171</v>
       </c>
       <c r="E7" t="s">
-        <v>1647</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -15521,7 +15558,7 @@
         <v>164</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -15530,7 +15567,7 @@
         <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>1648</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -15538,7 +15575,7 @@
         <v>291</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -15547,7 +15584,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>1649</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -15555,16 +15592,16 @@
         <v>199</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>359</v>
       </c>
       <c r="D10" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E10" t="s">
-        <v>1650</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15572,7 +15609,7 @@
         <v>1177</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>1178</v>
@@ -15581,7 +15618,7 @@
         <v>1178</v>
       </c>
       <c r="E11" t="s">
-        <v>1651</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -15589,7 +15626,7 @@
         <v>185</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>1179</v>
@@ -15598,58 +15635,58 @@
         <v>353</v>
       </c>
       <c r="E12" t="s">
-        <v>1652</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E13" t="s">
-        <v>1653</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>391</v>
       </c>
       <c r="D14" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E14" t="s">
-        <v>1654</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D15" t="s">
         <v>380</v>
       </c>
       <c r="E15" t="s">
-        <v>1655</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -15657,72 +15694,72 @@
         <v>105</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D16" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E16" t="s">
-        <v>1656</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D17" t="s">
         <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D18" t="s">
         <v>499</v>
       </c>
       <c r="E18" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D19" t="s">
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -15734,7 +15771,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -15742,55 +15779,55 @@
         <v>1175</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>1176</v>
       </c>
       <c r="D21" t="s">
-        <v>499</v>
+        <v>1176</v>
       </c>
       <c r="E21" t="s">
-        <v>1560</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D22" t="s">
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D23" t="s">
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -15802,7 +15839,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -15813,35 +15850,35 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D26" t="s">
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -15853,75 +15890,75 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D28" t="s">
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D29" t="s">
         <v>499</v>
       </c>
       <c r="E29" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D30" t="s">
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D31" t="s">
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -15932,13 +15969,13 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D32" t="s">
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -15949,13 +15986,13 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D33" t="s">
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -15972,12 +16009,12 @@
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -15989,7 +16026,7 @@
         <v>499</v>
       </c>
       <c r="E35" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -16000,13 +16037,13 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D36" t="s">
         <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -16017,30 +16054,30 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D37" t="s">
         <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D38" t="s">
         <v>499</v>
       </c>
       <c r="E38" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -16051,115 +16088,115 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D39" t="s">
         <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D40" t="s">
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D41" t="s">
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D42" t="s">
         <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D43" t="s">
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D44" t="s">
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D45" t="s">
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -16170,13 +16207,13 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D46" t="s">
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -16187,18 +16224,18 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D47" t="s">
         <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -16210,7 +16247,7 @@
         <v>499</v>
       </c>
       <c r="E48" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -16227,7 +16264,7 @@
         <v>499</v>
       </c>
       <c r="E49" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -16238,30 +16275,30 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D50" t="s">
         <v>499</v>
       </c>
       <c r="E50" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D51" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E51" t="s">
-        <v>1638</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -16269,7 +16306,7 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
         <v>325</v>
@@ -16278,7 +16315,7 @@
         <v>316</v>
       </c>
       <c r="E52" t="s">
-        <v>1639</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -16286,16 +16323,16 @@
         <v>210</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>421</v>
       </c>
       <c r="D53" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E53" t="s">
-        <v>1640</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -16305,7 +16342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4F4B24-7E1B-4A16-AEA8-524DC12D7D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF241336-ABD4-4B27-9513-7027DBA72306}">
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16334,16 +16371,16 @@
         <v>1161</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>1173</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>1173</v>
       </c>
       <c r="E2" t="s">
-        <v>918</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16351,27 +16388,27 @@
         <v>167</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
-        <v>919</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D4" t="s">
         <v>499</v>
@@ -16385,16 +16422,16 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>1287</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -16402,16 +16439,16 @@
         <v>222</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>1225</v>
       </c>
       <c r="E6" t="s">
-        <v>1288</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -16419,27 +16456,27 @@
         <v>116</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
-        <v>923</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D8" t="s">
         <v>499</v>
@@ -16453,33 +16490,33 @@
         <v>1163</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>1171</v>
       </c>
       <c r="D9" t="s">
-        <v>499</v>
+        <v>1171</v>
       </c>
       <c r="E9" t="s">
-        <v>925</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D10" t="s">
-        <v>499</v>
+        <v>1586</v>
       </c>
       <c r="E10" t="s">
-        <v>926</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -16487,16 +16524,16 @@
         <v>164</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -16504,16 +16541,16 @@
         <v>84</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>499</v>
+        <v>316</v>
       </c>
       <c r="E12" t="s">
-        <v>930</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -16521,16 +16558,16 @@
         <v>291</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>499</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>1289</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -16538,16 +16575,16 @@
         <v>199</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>359</v>
       </c>
       <c r="D14" t="s">
-        <v>499</v>
+        <v>1630</v>
       </c>
       <c r="E14" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -16555,16 +16592,16 @@
         <v>1177</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>1178</v>
       </c>
       <c r="D15" t="s">
-        <v>499</v>
+        <v>1178</v>
       </c>
       <c r="E15" t="s">
-        <v>1290</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -16572,16 +16609,16 @@
         <v>185</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>1179</v>
       </c>
       <c r="D16" t="s">
-        <v>499</v>
+        <v>353</v>
       </c>
       <c r="E16" t="s">
-        <v>1449</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -16603,36 +16640,36 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>1226</v>
       </c>
       <c r="E18" t="s">
-        <v>1291</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D19" t="s">
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16649,24 +16686,24 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D21" t="s">
-        <v>499</v>
+        <v>1539</v>
       </c>
       <c r="E21" t="s">
-        <v>937</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -16688,7 +16725,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -16705,7 +16742,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -16717,7 +16754,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -16725,16 +16762,16 @@
         <v>210</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D25" t="s">
-        <v>499</v>
+        <v>1228</v>
       </c>
       <c r="E25" t="s">
-        <v>941</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -16756,24 +16793,24 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D27" t="s">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
-        <v>1331</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -16785,7 +16822,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -16793,16 +16830,16 @@
         <v>105</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>1379</v>
       </c>
       <c r="E29" t="s">
-        <v>1295</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -16819,12 +16856,12 @@
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -16841,41 +16878,41 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D32" t="s">
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D33" t="s">
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -16887,7 +16924,7 @@
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -16895,38 +16932,38 @@
         <v>1175</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="D35" t="s">
-        <v>499</v>
+        <v>1176</v>
       </c>
       <c r="E35" t="s">
-        <v>1268</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D36" t="s">
         <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -16938,7 +16975,7 @@
         <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -16955,12 +16992,12 @@
         <v>499</v>
       </c>
       <c r="E38" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -16972,24 +17009,24 @@
         <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D40" t="s">
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -17006,7 +17043,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -17017,52 +17054,52 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D42" t="s">
         <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D43" t="s">
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D44" t="s">
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -17074,7 +17111,7 @@
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -17085,24 +17122,24 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D46" t="s">
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D47" t="s">
         <v>499</v>
@@ -17113,7 +17150,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -17125,7 +17162,7 @@
         <v>499</v>
       </c>
       <c r="E48" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -17142,24 +17179,24 @@
         <v>499</v>
       </c>
       <c r="E49" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D50" t="s">
         <v>499</v>
       </c>
       <c r="E50" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -17170,13 +17207,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D51" t="s">
         <v>499</v>
       </c>
       <c r="E51" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -17187,13 +17224,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D52" t="s">
         <v>499</v>
       </c>
       <c r="E52" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -17210,12 +17247,12 @@
         <v>499</v>
       </c>
       <c r="E53" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -17244,18 +17281,18 @@
         <v>499</v>
       </c>
       <c r="E55" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="D56" t="s">
         <v>499</v>
@@ -17272,13 +17309,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D57" t="s">
         <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -17300,30 +17337,30 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D59" t="s">
         <v>499</v>
       </c>
       <c r="E59" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D60" t="s">
         <v>499</v>
@@ -17346,7 +17383,7 @@
         <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -17363,12 +17400,12 @@
         <v>499</v>
       </c>
       <c r="E62" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -17397,18 +17434,18 @@
         <v>499</v>
       </c>
       <c r="E64" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D65" t="s">
         <v>499</v>
@@ -17436,13 +17473,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D67" t="s">
         <v>499</v>
@@ -17470,13 +17507,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D69" t="s">
         <v>499</v>
@@ -17487,13 +17524,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D70" t="s">
         <v>499</v>
@@ -17504,47 +17541,47 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D71" t="s">
         <v>499</v>
       </c>
       <c r="E71" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D72" t="s">
         <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D73" t="s">
         <v>499</v>
@@ -17555,13 +17592,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D74" t="s">
         <v>499</v>
@@ -17572,24 +17609,24 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D75" t="s">
         <v>499</v>
       </c>
       <c r="E75" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -17601,7 +17638,7 @@
         <v>499</v>
       </c>
       <c r="E76" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -17618,7 +17655,7 @@
         <v>499</v>
       </c>
       <c r="E77" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -17635,7 +17672,7 @@
         <v>499</v>
       </c>
       <c r="E78" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -17652,12 +17689,12 @@
         <v>499</v>
       </c>
       <c r="E79" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -17669,7 +17706,7 @@
         <v>499</v>
       </c>
       <c r="E80" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -17686,7 +17723,7 @@
         <v>499</v>
       </c>
       <c r="E81" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -17703,7 +17740,7 @@
         <v>499</v>
       </c>
       <c r="E82" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -17720,7 +17757,7 @@
         <v>499</v>
       </c>
       <c r="E83" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -17737,7 +17774,7 @@
         <v>499</v>
       </c>
       <c r="E84" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
@@ -17747,7 +17784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BACABC5-CA69-473E-A8F7-181E4914A065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D2D1B5-D8F4-4638-865D-4925CB562E53}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17781,9 +17818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -17910,7 +17945,7 @@
       </c>
       <c r="H3" s="56"/>
       <c r="I3" s="56" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J3" s="56" t="s">
         <v>346</v>
@@ -17920,13 +17955,15 @@
         <v>1171</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>57</v>
       </c>
       <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
+      <c r="P3" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="Q3" s="56" t="s">
         <v>316</v>
       </c>
@@ -17935,41 +17972,41 @@
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="62" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>702</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>720</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>619</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>840</v>
+        <v>591</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
@@ -17988,49 +18025,49 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="57" t="s">
         <v>1161</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G5" s="67" t="s">
+      <c r="F5" s="46" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="67" t="s">
-        <v>1254</v>
-      </c>
-      <c r="L5" s="67" t="s">
+      <c r="K5" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L5" s="57" t="s">
         <v>1163</v>
       </c>
-      <c r="M5" s="67" t="s">
-        <v>1253</v>
-      </c>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N5" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="Q5" s="67" t="s">
+      <c r="Q5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="67" t="s">
+      <c r="R5" s="57" t="s">
         <v>291</v>
       </c>
       <c r="S5" s="21"/>
@@ -18040,42 +18077,42 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1657</v>
+        <v>1639</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="J6" s="24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>1532</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>1533</v>
-      </c>
       <c r="M6" s="24" t="s">
-        <v>1658</v>
+        <v>1640</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1397</v>
+        <v>1643</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1659</v>
+        <v>1641</v>
       </c>
       <c r="R6" s="24" t="s">
         <v>722</v>
@@ -18098,20 +18135,20 @@
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="56" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="S7" s="29"/>
       <c r="V7" s="63"/>
@@ -18119,43 +18156,43 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="60" t="s">
-        <v>645</v>
+        <v>1631</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>1312</v>
+        <v>633</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="N8" s="60" t="s">
         <v>704</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="P8" s="60"/>
       <c r="Q8" s="60" t="s">
         <v>597</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -18165,49 +18202,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="57" t="s">
         <v>1177</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="57" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J9" s="46" t="s">
         <v>1242</v>
       </c>
-      <c r="J9" s="67" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="46" t="s">
         <v>1156</v>
       </c>
-      <c r="M9" s="67" t="s">
-        <v>1199</v>
-      </c>
-      <c r="N9" s="67" t="s">
+      <c r="M9" s="57" t="s">
+        <v>1198</v>
+      </c>
+      <c r="N9" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="67" t="s">
-        <v>1203</v>
-      </c>
-      <c r="P9" s="67" t="s">
+      <c r="O9" s="46" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="67" t="s">
-        <v>1210</v>
-      </c>
-      <c r="R9" s="67" t="s">
+      <c r="Q9" s="46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="R9" s="57" t="s">
         <v>210</v>
       </c>
       <c r="S9" s="21"/>
@@ -18217,40 +18254,40 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="24" t="s">
-        <v>567</v>
+        <v>1633</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>1398</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>1399</v>
-      </c>
       <c r="J10" s="24" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>1664</v>
+        <v>1644</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1660</v>
+        <v>1642</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1665</v>
+        <v>1645</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>730</v>
@@ -18263,12 +18300,12 @@
       <c r="C11" s="33"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -18285,17 +18322,17 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="60" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1457</v>
+        <v>691</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>651</v>
@@ -18317,29 +18354,29 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="46" t="s">
         <v>1158</v>
       </c>
-      <c r="E13" s="67" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F13" s="67" t="s">
+      <c r="E13" s="57" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="67" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H13" s="67" t="s">
+      <c r="G13" s="46" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H13" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="67" t="s">
-        <v>1479</v>
+      <c r="K13" s="46" t="s">
+        <v>1478</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -18354,20 +18391,20 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1534</v>
+        <v>1634</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -18426,7 +18463,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="67" t="str">
+      <c r="D17" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18475,7 +18512,9 @@
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="56" t="s">
+        <v>1650</v>
+      </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -18486,7 +18525,7 @@
       <c r="P19" s="56"/>
       <c r="Q19" s="56"/>
       <c r="R19" s="56" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="V19" s="63"/>
     </row>
@@ -18496,19 +18535,19 @@
         <v>774</v>
       </c>
       <c r="E20" s="60" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F20" s="60" t="s">
         <v>1596</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>1597</v>
       </c>
       <c r="G20" s="60" t="s">
         <v>864</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>1598</v>
+        <v>1382</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="J20" s="60" t="s">
         <v>722</v>
@@ -18518,19 +18557,19 @@
         <v>543</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O20" s="60" t="s">
         <v>746</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="R20" s="60" t="s">
         <v>633</v>
@@ -18543,49 +18582,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E21" s="67" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H21" s="67" t="s">
+      <c r="D21" s="46" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H21" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="I21" s="67" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J21" s="67" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K21" s="67" t="s">
+      <c r="I21" s="46" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="68" t="s">
-        <v>1222</v>
-      </c>
-      <c r="N21" s="67" t="s">
-        <v>1219</v>
-      </c>
-      <c r="O21" s="67" t="s">
+      <c r="M21" s="67" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O21" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="67" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Q21" s="67" t="s">
-        <v>1240</v>
-      </c>
-      <c r="R21" s="67" t="s">
+      <c r="P21" s="46" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Q21" s="46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R21" s="57" t="s">
         <v>185</v>
       </c>
       <c r="S21" s="21"/>
@@ -18594,47 +18633,47 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>517</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1599</v>
+        <v>1394</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1666</v>
+        <v>1646</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>722</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="N22" s="24" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O22" s="24" t="s">
         <v>1328</v>
       </c>
-      <c r="O22" s="24" t="s">
-        <v>1329</v>
-      </c>
       <c r="P22" s="24" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -18684,10 +18723,10 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="67" t="str">
+      <c r="E25" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18781,7 +18820,7 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="67" t="str">
+      <c r="D29" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18849,7 +18888,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
       <c r="R31" s="56" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
@@ -18860,16 +18899,16 @@
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="60" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E32" s="60" t="s">
         <v>555</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H32" s="60" t="s">
         <v>734</v>
@@ -18878,21 +18917,21 @@
         <v>607</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
         <v>617</v>
       </c>
       <c r="P32" s="60" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q32" s="60" t="s">
         <v>826</v>
@@ -18912,49 +18951,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="67" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F33" s="67" t="s">
+      <c r="D33" s="46" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F33" s="46" t="s">
         <v>1180</v>
       </c>
-      <c r="G33" s="67" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I33" s="67" t="s">
+      <c r="G33" s="46" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I33" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="67" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K33" s="67" t="s">
+      <c r="J33" s="46" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K33" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="67" t="s">
+      <c r="L33" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="46" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="67" t="s">
+      <c r="N33" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="67" t="s">
+      <c r="O33" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="67" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q33" s="67" t="s">
+      <c r="P33" s="46" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q33" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="R33" s="67" t="s">
+      <c r="R33" s="57" t="s">
         <v>164</v>
       </c>
       <c r="S33" s="21"/>
@@ -18963,45 +19002,45 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>792</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1667</v>
+        <v>1647</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>1668</v>
+        <v>1648</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -19029,10 +19068,10 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="60" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="F36" s="60" t="s">
         <v>722</v>
@@ -19057,25 +19096,25 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="67" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E37" s="67" t="s">
+      <c r="D37" s="46" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E37" s="46" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="46" t="s">
         <v>1159</v>
       </c>
-      <c r="G37" s="67" t="s">
+      <c r="G37" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="67" t="str">
+      <c r="H37" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J37" s="41" t="str">
         <f>CHAR(10)</f>
@@ -19096,10 +19135,10 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="24" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>722</v>
@@ -19164,7 +19203,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="67" t="str">
+      <c r="D41" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19229,10 +19268,10 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="60" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>515</v>
@@ -19247,27 +19286,27 @@
         <v>862</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="K44" s="60"/>
       <c r="L44" s="60" t="s">
         <v>912</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="N44" s="60"/>
       <c r="O44" s="60" t="s">
         <v>623</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -19277,50 +19316,50 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="67" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E45" s="67" t="s">
+      <c r="D45" s="46" t="s">
         <v>1191</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="E45" s="46" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F45" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="67" t="s">
+      <c r="G45" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="67" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I45" s="67" t="s">
+      <c r="H45" s="46" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I45" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="67" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K45" s="67" t="s">
+      <c r="J45" s="46" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K45" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="67" t="s">
+      <c r="L45" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="M45" s="67" t="s">
-        <v>1218</v>
-      </c>
-      <c r="N45" s="67" t="s">
+      <c r="M45" s="46" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N45" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="67" t="s">
+      <c r="O45" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="P45" s="67" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Q45" s="67" t="s">
-        <v>1245</v>
-      </c>
-      <c r="R45" s="67" t="s">
-        <v>1196</v>
+      <c r="P45" s="46" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Q45" s="46" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R45" s="46" t="s">
+        <v>1195</v>
       </c>
       <c r="S45" s="21"/>
       <c r="V45" s="63"/>
@@ -19328,10 +19367,10 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>515</v>
@@ -19343,30 +19382,30 @@
         <v>738</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J46" s="24" t="s">
         <v>607</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="24" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="24" t="s">
         <v>623</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -19394,13 +19433,13 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="60" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="G48" s="60"/>
       <c r="H48" s="60"/>
@@ -19422,19 +19461,19 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="67" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E49" s="67" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F49" s="67" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G49" s="67" t="s">
+      <c r="D49" s="46" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G49" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="67" t="str">
+      <c r="H49" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19455,13 +19494,13 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -19523,7 +19562,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="67" t="str">
+      <c r="D53" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19578,7 +19617,7 @@
       <c r="K55" s="56"/>
       <c r="L55" s="56"/>
       <c r="M55" s="56" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="N55" s="56"/>
       <c r="O55" s="56"/>
@@ -19590,22 +19629,22 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E56" s="60" t="s">
         <v>525</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="G56" s="60" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H56" s="60" t="s">
         <v>675</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J56" s="60" t="s">
         <v>651</v>
@@ -19615,7 +19654,7 @@
         <v>916</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
@@ -19638,49 +19677,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="67" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E57" s="67" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F57" s="67" t="s">
+      <c r="D57" s="46" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F57" s="46" t="s">
         <v>1157</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="61" t="s">
         <v>1182</v>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="67" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J57" s="67" t="s">
+      <c r="I57" s="46" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J57" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="K57" s="67" t="s">
+      <c r="K57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L57" s="67" t="s">
+      <c r="L57" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="M57" s="67" t="s">
+      <c r="M57" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="N57" s="67" t="s">
+      <c r="N57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="67" t="s">
+      <c r="O57" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="67" t="s">
+      <c r="P57" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" s="67" t="s">
+      <c r="Q57" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="67" t="s">
+      <c r="R57" s="57" t="s">
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
@@ -19689,45 +19728,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="24" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="Q58" s="24" t="s">
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -19738,7 +19777,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -19785,19 +19824,19 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="D61" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="67" t="s">
+      <c r="E61" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="67" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G61" s="69" t="s">
+      <c r="F61" s="57" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G61" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="67" t="s">
+      <c r="H61" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="41"/>
@@ -19816,13 +19855,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -28244,410 +28283,410 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="353" priority="97">
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="97">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="98">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="351" priority="57">
+    <cfRule type="expression" dxfId="353" priority="58">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="57">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="58">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="349" priority="55">
+    <cfRule type="expression" dxfId="351" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="56">
+    <cfRule type="expression" dxfId="350" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="347" priority="53">
+    <cfRule type="expression" dxfId="349" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="345" priority="51">
+    <cfRule type="expression" dxfId="347" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="52">
+    <cfRule type="expression" dxfId="346" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="343" priority="49">
+    <cfRule type="expression" dxfId="345" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="50">
+    <cfRule type="expression" dxfId="344" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="341" priority="47">
+    <cfRule type="expression" dxfId="343" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="48">
+    <cfRule type="expression" dxfId="342" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="339" priority="45">
+    <cfRule type="expression" dxfId="341" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="338" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="337" priority="43">
+    <cfRule type="expression" dxfId="339" priority="44">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="335" priority="41">
+    <cfRule type="expression" dxfId="337" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="333" priority="39">
+    <cfRule type="expression" dxfId="335" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="332" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="331" priority="37">
+    <cfRule type="expression" dxfId="333" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="38">
+    <cfRule type="expression" dxfId="332" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="329" priority="35">
+    <cfRule type="expression" dxfId="331" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="36">
+    <cfRule type="expression" dxfId="330" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="327" priority="33">
+    <cfRule type="expression" dxfId="329" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="34">
+    <cfRule type="expression" dxfId="328" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="325" priority="31">
+    <cfRule type="expression" dxfId="327" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="32">
+    <cfRule type="expression" dxfId="326" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="323" priority="29">
+    <cfRule type="expression" dxfId="325" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="321" priority="27">
+    <cfRule type="expression" dxfId="323" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="28">
+    <cfRule type="expression" dxfId="322" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="319" priority="25">
+    <cfRule type="expression" dxfId="321" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="26">
+    <cfRule type="expression" dxfId="320" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="317" priority="23">
+    <cfRule type="expression" dxfId="319" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="315" priority="21">
+    <cfRule type="expression" dxfId="317" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="314" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="313" priority="19">
+    <cfRule type="expression" dxfId="315" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="20">
+    <cfRule type="expression" dxfId="314" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="311" priority="17">
+    <cfRule type="expression" dxfId="313" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="18">
+    <cfRule type="expression" dxfId="312" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="309" priority="15">
+    <cfRule type="expression" dxfId="311" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="16">
+    <cfRule type="expression" dxfId="310" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="307" priority="13">
+    <cfRule type="expression" dxfId="309" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="305" priority="11">
+    <cfRule type="expression" dxfId="307" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="12">
+    <cfRule type="expression" dxfId="306" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="303" priority="9">
+    <cfRule type="expression" dxfId="305" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="301" priority="7">
+    <cfRule type="expression" dxfId="303" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="299" priority="5">
+    <cfRule type="expression" dxfId="301" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="6">
+    <cfRule type="expression" dxfId="300" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="297" priority="3">
+    <cfRule type="expression" dxfId="299" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="4">
+    <cfRule type="expression" dxfId="298" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="295" priority="1">
+    <cfRule type="expression" dxfId="297" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="2">
+    <cfRule type="expression" dxfId="296" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="293" priority="143">
+    <cfRule type="expression" dxfId="295" priority="144">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="143">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="144">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="291" priority="141">
+    <cfRule type="expression" dxfId="293" priority="142">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="141">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="142">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="289" priority="139">
+    <cfRule type="expression" dxfId="291" priority="140">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="139">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="140">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="287" priority="137">
+    <cfRule type="expression" dxfId="289" priority="138">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="137">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="138">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="285" priority="93">
+    <cfRule type="expression" dxfId="287" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="93">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="94">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="283" priority="91">
+    <cfRule type="expression" dxfId="285" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="92">
+    <cfRule type="expression" dxfId="284" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="281" priority="89">
+    <cfRule type="expression" dxfId="283" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="90">
+    <cfRule type="expression" dxfId="282" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="279" priority="87">
+    <cfRule type="expression" dxfId="281" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="88">
+    <cfRule type="expression" dxfId="280" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="277" priority="85">
+    <cfRule type="expression" dxfId="279" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="86">
+    <cfRule type="expression" dxfId="278" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="275" priority="83">
+    <cfRule type="expression" dxfId="277" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="84">
+    <cfRule type="expression" dxfId="276" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="273" priority="81">
+    <cfRule type="expression" dxfId="275" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="82">
+    <cfRule type="expression" dxfId="274" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="271" priority="79">
+    <cfRule type="expression" dxfId="273" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="80">
+    <cfRule type="expression" dxfId="272" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="269" priority="77">
+    <cfRule type="expression" dxfId="271" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="78">
+    <cfRule type="expression" dxfId="270" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="267" priority="75">
+    <cfRule type="expression" dxfId="269" priority="76">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="75">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="76">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="265" priority="73">
+    <cfRule type="expression" dxfId="267" priority="74">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="73">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="263" priority="71">
+    <cfRule type="expression" dxfId="265" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="71">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="72">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="261" priority="69">
+    <cfRule type="expression" dxfId="263" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="69">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="259" priority="67">
+    <cfRule type="expression" dxfId="261" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="67">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="68">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="257" priority="63">
+    <cfRule type="expression" dxfId="259" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="64">
+    <cfRule type="expression" dxfId="258" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="255" priority="61">
+    <cfRule type="expression" dxfId="257" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="62">
+    <cfRule type="expression" dxfId="256" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="253" priority="59">
+    <cfRule type="expression" dxfId="255" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="60">
+    <cfRule type="expression" dxfId="254" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28778,7 +28817,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="56" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>702</v>
@@ -28789,17 +28828,17 @@
       </c>
       <c r="H3" s="56"/>
       <c r="I3" s="56" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="J3" s="56" t="s">
         <v>619</v>
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>840</v>
@@ -28814,38 +28853,38 @@
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="62" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>702</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>619</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="N4" s="60" t="s">
         <v>840</v>
@@ -28874,7 +28913,7 @@
         <v>167</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>20</v>
@@ -28889,13 +28928,13 @@
         <v>116</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>1163</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="N5" s="57" t="s">
         <v>164</v>
@@ -28907,7 +28946,7 @@
         <v>164</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R5" s="57" t="s">
         <v>291</v>
@@ -28919,42 +28958,42 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="J6" s="24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>1532</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>1533</v>
-      </c>
       <c r="M6" s="24" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="R6" s="24" t="s">
         <v>722</v>
@@ -28970,27 +29009,27 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="56" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="S7" s="29"/>
       <c r="V7" s="63"/>
@@ -29002,23 +29041,23 @@
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="M8" s="60" t="s">
         <v>712</v>
@@ -29027,7 +29066,7 @@
         <v>704</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="P8" s="60"/>
       <c r="Q8" s="60" t="s">
@@ -29051,19 +29090,19 @@
         <v>23</v>
       </c>
       <c r="F9" s="57" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>1590</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>1591</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>259</v>
       </c>
       <c r="I9" s="57" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J9" s="46" t="s">
         <v>1242</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>1243</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>23</v>
@@ -29072,19 +29111,19 @@
         <v>1156</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="N9" s="46" t="s">
         <v>168</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="46" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R9" s="46" t="s">
         <v>210</v>
@@ -29100,39 +29139,39 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>1398</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>1399</v>
-      </c>
       <c r="J10" s="24" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
         <v>591</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="S10" s="31"/>
       <c r="V10" s="63"/>
@@ -29142,12 +29181,12 @@
       <c r="C11" s="33"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -29164,17 +29203,17 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="60" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>651</v>
@@ -29200,13 +29239,13 @@
         <v>1158</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H13" s="57" t="s">
         <v>105</v>
@@ -29235,20 +29274,20 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -29353,88 +29392,88 @@
       <c r="B19" s="12"/>
       <c r="C19" s="34"/>
       <c r="D19" s="56" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E19" s="56" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G19" s="56" t="s">
         <v>1358</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="H19" s="56" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I19" s="56" t="s">
         <v>1363</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="J19" s="56" t="s">
         <v>1359</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>1360</v>
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="56"/>
       <c r="M19" s="56" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Q19" s="56" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="R19" s="56" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="V19" s="63"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E20" s="60" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G20" s="60" t="s">
         <v>1358</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="H20" s="60" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I20" s="60" t="s">
         <v>1363</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="J20" s="60" t="s">
         <v>1359</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J20" s="60" t="s">
-        <v>1360</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60" t="s">
         <v>543</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O20" s="60" t="s">
         <v>746</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="R20" s="60" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="63"/>
@@ -29445,25 +29484,25 @@
         <v>5</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H21" s="57" t="s">
         <v>1175</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J21" s="57" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>23</v>
@@ -29472,19 +29511,19 @@
         <v>252</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O21" s="46" t="s">
         <v>194</v>
       </c>
       <c r="P21" s="57" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Q21" s="57" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R21" s="57" t="s">
         <v>185</v>
@@ -29495,47 +29534,47 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E22" s="24" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>1402</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="G22" s="24" t="s">
         <v>1403</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="H22" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>1404</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>1405</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="M22" s="24" t="s">
+        <v>1405</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P22" s="24" t="s">
         <v>1406</v>
       </c>
-      <c r="N22" s="24" t="s">
-        <v>1328</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>1329</v>
-      </c>
-      <c r="P22" s="24" t="s">
+      <c r="Q22" s="24" t="s">
         <v>1407</v>
       </c>
-      <c r="Q22" s="24" t="s">
-        <v>1408</v>
-      </c>
       <c r="R22" s="24" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -29739,27 +29778,27 @@
         <v>523</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H31" s="56" t="s">
         <v>1368</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>1369</v>
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="N31" s="56"/>
       <c r="O31" s="56" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P31" s="56"/>
       <c r="Q31" s="56" t="s">
@@ -29778,36 +29817,36 @@
         <v>523</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G32" s="60" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H32" s="60" t="s">
         <v>1368</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>1369</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>607</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P32" s="60" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q32" s="60" t="s">
         <v>826</v>
@@ -29828,25 +29867,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F33" s="46" t="s">
         <v>1180</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I33" s="46" t="s">
         <v>111</v>
       </c>
       <c r="J33" s="57" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K33" s="46" t="s">
         <v>23</v>
@@ -29864,7 +29903,7 @@
         <v>31</v>
       </c>
       <c r="P33" s="46" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q33" s="57" t="s">
         <v>237</v>
@@ -29878,45 +29917,45 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>1409</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="F34" s="24" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>1410</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G34" s="24" t="s">
+      <c r="H34" s="24" t="s">
         <v>1411</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="I34" s="24" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J34" s="24" t="s">
         <v>1412</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>1413</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q34" s="24" t="s">
         <v>826</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -29928,10 +29967,10 @@
         <v>864</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="56"/>
@@ -29953,10 +29992,10 @@
         <v>864</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
@@ -29979,7 +30018,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E37" s="57" t="s">
         <v>1162</v>
@@ -29996,7 +30035,7 @@
 </v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J37" s="41" t="str">
         <f>CHAR(10)</f>
@@ -30017,13 +30056,13 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="24" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>1415</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>1416</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>1417</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -30137,20 +30176,20 @@
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="Q43" s="56" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="R43" s="56"/>
       <c r="V43" s="63"/>
@@ -30158,10 +30197,10 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="60" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>515</v>
@@ -30176,27 +30215,27 @@
         <v>862</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="K44" s="60"/>
       <c r="L44" s="60" t="s">
         <v>912</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="N44" s="60"/>
       <c r="O44" s="60" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -30207,10 +30246,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>71</v>
@@ -30219,13 +30258,13 @@
         <v>170</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I45" s="46" t="s">
         <v>262</v>
       </c>
       <c r="J45" s="57" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K45" s="46" t="s">
         <v>23</v>
@@ -30234,7 +30273,7 @@
         <v>296</v>
       </c>
       <c r="M45" s="46" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N45" s="46" t="s">
         <v>23</v>
@@ -30243,13 +30282,13 @@
         <v>119</v>
       </c>
       <c r="P45" s="57" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q45" s="57" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R45" s="46" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="S45" s="21"/>
       <c r="V45" s="63"/>
@@ -30257,10 +30296,10 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>515</v>
@@ -30272,30 +30311,30 @@
         <v>738</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="24" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="24" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -30304,13 +30343,13 @@
       <c r="B47" s="12"/>
       <c r="C47" s="34"/>
       <c r="D47" s="56" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E47" s="56" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F47" s="56" t="s">
         <v>1352</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F47" s="56" t="s">
-        <v>1353</v>
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
@@ -30329,13 +30368,13 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="60" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F48" s="60" t="s">
         <v>1352</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>1353</v>
       </c>
       <c r="G48" s="60"/>
       <c r="H48" s="60"/>
@@ -30358,13 +30397,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G49" s="46" t="s">
         <v>30</v>
@@ -30390,13 +30429,13 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F50" s="24" t="s">
         <v>1422</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>1423</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -30504,18 +30543,18 @@
       <c r="B55" s="12"/>
       <c r="C55" s="34"/>
       <c r="D55" s="56" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="56" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J55" s="56"/>
       <c r="K55" s="56"/>
@@ -30523,10 +30562,10 @@
       <c r="M55" s="56"/>
       <c r="N55" s="56"/>
       <c r="O55" s="56" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P55" s="56" t="s">
         <v>1372</v>
-      </c>
-      <c r="P55" s="56" t="s">
-        <v>1373</v>
       </c>
       <c r="Q55" s="56"/>
       <c r="R55" s="56"/>
@@ -30535,22 +30574,22 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E56" s="60" t="s">
         <v>525</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G56" s="60" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J56" s="60" t="s">
         <v>651</v>
@@ -30564,10 +30603,10 @@
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P56" s="60" t="s">
         <v>1372</v>
-      </c>
-      <c r="P56" s="60" t="s">
-        <v>1373</v>
       </c>
       <c r="Q56" s="60" t="s">
         <v>708</v>
@@ -30584,10 +30623,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F57" s="57" t="s">
         <v>1157</v>
@@ -30599,7 +30638,7 @@
         <v>209</v>
       </c>
       <c r="I57" s="57" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="J57" s="46" t="s">
         <v>280</v>
@@ -30634,45 +30673,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>1537</v>
       </c>
-      <c r="E58" s="24" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>1538</v>
-      </c>
       <c r="G58" s="24" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="24" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="M58" s="24" t="s">
         <v>567</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
+        <v>1424</v>
+      </c>
+      <c r="P58" s="24" t="s">
         <v>1425</v>
-      </c>
-      <c r="P58" s="24" t="s">
-        <v>1426</v>
       </c>
       <c r="Q58" s="24" t="s">
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -30683,7 +30722,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -30702,13 +30741,13 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="60" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E60" s="60" t="s">
         <v>1372</v>
       </c>
-      <c r="E60" s="60" t="s">
-        <v>1373</v>
-      </c>
       <c r="F60" s="60" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -30737,7 +30776,7 @@
         <v>26</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G61" s="61" t="s">
         <v>30</v>
@@ -30761,13 +30800,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E62" s="24" t="s">
         <v>1425</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>1426</v>
-      </c>
       <c r="F62" s="24" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -39189,411 +39228,411 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="251" priority="5">
+    <cfRule type="expression" dxfId="253" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="6">
+    <cfRule type="expression" dxfId="252" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="249" priority="3">
+    <cfRule type="expression" dxfId="251" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="4">
+    <cfRule type="expression" dxfId="250" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="247" priority="1">
+    <cfRule type="expression" dxfId="249" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="2">
+    <cfRule type="expression" dxfId="248" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="245" priority="59">
+    <cfRule type="expression" dxfId="247" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="60">
+    <cfRule type="expression" dxfId="246" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="243" priority="57">
+    <cfRule type="expression" dxfId="245" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="58">
+    <cfRule type="expression" dxfId="244" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="241" priority="55">
+    <cfRule type="expression" dxfId="243" priority="56">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="55">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="56">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="239" priority="53">
+    <cfRule type="expression" dxfId="241" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="237" priority="51">
+    <cfRule type="expression" dxfId="239" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="52">
+    <cfRule type="expression" dxfId="238" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="235" priority="49">
+    <cfRule type="expression" dxfId="237" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="50">
+    <cfRule type="expression" dxfId="236" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="233" priority="47">
+    <cfRule type="expression" dxfId="235" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="48">
+    <cfRule type="expression" dxfId="234" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="231" priority="45">
+    <cfRule type="expression" dxfId="233" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="46">
+    <cfRule type="expression" dxfId="232" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="229" priority="43">
+    <cfRule type="expression" dxfId="231" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="44">
+    <cfRule type="expression" dxfId="230" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="227" priority="41">
+    <cfRule type="expression" dxfId="229" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="42">
+    <cfRule type="expression" dxfId="228" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="225" priority="39">
+    <cfRule type="expression" dxfId="227" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="223" priority="37">
+    <cfRule type="expression" dxfId="225" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="38">
+    <cfRule type="expression" dxfId="224" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="221" priority="35">
+    <cfRule type="expression" dxfId="223" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="36">
+    <cfRule type="expression" dxfId="222" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="219" priority="33">
+    <cfRule type="expression" dxfId="221" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="34">
+    <cfRule type="expression" dxfId="220" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="217" priority="31">
+    <cfRule type="expression" dxfId="219" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="32">
+    <cfRule type="expression" dxfId="218" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="215" priority="29">
+    <cfRule type="expression" dxfId="217" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="30">
+    <cfRule type="expression" dxfId="216" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="213" priority="27">
+    <cfRule type="expression" dxfId="215" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="28">
+    <cfRule type="expression" dxfId="214" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="211" priority="25">
+    <cfRule type="expression" dxfId="213" priority="26">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="25">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="26">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="209" priority="23">
+    <cfRule type="expression" dxfId="211" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="207" priority="21">
+    <cfRule type="expression" dxfId="209" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="22">
+    <cfRule type="expression" dxfId="208" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="205" priority="19">
+    <cfRule type="expression" dxfId="207" priority="20">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="19">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="20">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="203" priority="17">
+    <cfRule type="expression" dxfId="205" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="18">
+    <cfRule type="expression" dxfId="204" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="201" priority="15">
+    <cfRule type="expression" dxfId="203" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="16">
+    <cfRule type="expression" dxfId="202" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="199" priority="13">
+    <cfRule type="expression" dxfId="201" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="197" priority="11">
+    <cfRule type="expression" dxfId="199" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="12">
+    <cfRule type="expression" dxfId="198" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="195" priority="9">
+    <cfRule type="expression" dxfId="197" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="10">
+    <cfRule type="expression" dxfId="196" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="193" priority="7">
+    <cfRule type="expression" dxfId="195" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="191" priority="107">
+    <cfRule type="expression" dxfId="193" priority="108">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="107">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="108">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="189" priority="105">
+    <cfRule type="expression" dxfId="191" priority="105">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="106">
+    <cfRule type="expression" dxfId="190" priority="106">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="187" priority="103">
+    <cfRule type="expression" dxfId="189" priority="104">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="103">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="104">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="185" priority="101">
+    <cfRule type="expression" dxfId="187" priority="102">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="101">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="102">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="183" priority="97">
+    <cfRule type="expression" dxfId="185" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="97">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="98">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="181" priority="95">
+    <cfRule type="expression" dxfId="183" priority="96">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="95">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="96">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="179" priority="93">
+    <cfRule type="expression" dxfId="181" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="93">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="94">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="177" priority="91">
+    <cfRule type="expression" dxfId="179" priority="92">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="91">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="92">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="175" priority="89">
+    <cfRule type="expression" dxfId="177" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="90">
+    <cfRule type="expression" dxfId="176" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="173" priority="87">
+    <cfRule type="expression" dxfId="175" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="88">
+    <cfRule type="expression" dxfId="174" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="171" priority="85">
+    <cfRule type="expression" dxfId="173" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="86">
+    <cfRule type="expression" dxfId="172" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="169" priority="83">
+    <cfRule type="expression" dxfId="171" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="84">
+    <cfRule type="expression" dxfId="170" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="167" priority="81">
+    <cfRule type="expression" dxfId="169" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="82">
+    <cfRule type="expression" dxfId="168" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="165" priority="79">
+    <cfRule type="expression" dxfId="167" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="80">
+    <cfRule type="expression" dxfId="166" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="163" priority="77">
+    <cfRule type="expression" dxfId="165" priority="78">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="77">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="78">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="161" priority="75">
+    <cfRule type="expression" dxfId="163" priority="76">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="75">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="76">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="159" priority="73">
+    <cfRule type="expression" dxfId="161" priority="74">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="73">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="157" priority="71">
+    <cfRule type="expression" dxfId="159" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="71">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="72">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="155" priority="69">
+    <cfRule type="expression" dxfId="157" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="69">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="153" priority="67">
+    <cfRule type="expression" dxfId="155" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="67">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="68">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="151" priority="65">
+    <cfRule type="expression" dxfId="153" priority="66">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="65">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="66">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39730,11 +39769,11 @@
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H3" s="56"/>
       <c r="I3" s="56" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J3" s="56" t="s">
         <v>346</v>
@@ -39755,7 +39794,7 @@
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="62" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -39767,26 +39806,26 @@
         <v>386</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>382</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="N4" s="60" t="s">
         <v>57</v>
@@ -39815,7 +39854,7 @@
         <v>167</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>20</v>
@@ -39830,13 +39869,13 @@
         <v>116</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>1163</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="N5" s="57" t="s">
         <v>164</v>
@@ -39860,42 +39899,42 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>1462</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>1463</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>1464</v>
-      </c>
       <c r="G6" s="24" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>406</v>
       </c>
       <c r="K6" s="24" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>1465</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="M6" s="24" t="s">
         <v>1466</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="N6" s="24" t="s">
         <v>1467</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>1468</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
+        <v>1467</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>1468</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>1469</v>
       </c>
       <c r="R6" s="24" t="s">
         <v>62</v>
@@ -39918,7 +39957,7 @@
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
@@ -39950,10 +39989,10 @@
         <v>457</v>
       </c>
       <c r="I8" s="60" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J8" s="60" t="s">
         <v>1227</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>1228</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
@@ -39963,7 +40002,7 @@
         <v>391</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O8" s="60" t="s">
         <v>1181</v>
@@ -39973,7 +40012,7 @@
         <v>336</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -39999,10 +40038,10 @@
         <v>259</v>
       </c>
       <c r="I9" s="57" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J9" s="46" t="s">
         <v>1242</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>1243</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>23</v>
@@ -40011,19 +40050,19 @@
         <v>1156</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="N9" s="46" t="s">
         <v>168</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="46" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R9" s="46" t="s">
         <v>210</v>
@@ -40039,36 +40078,36 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>1470</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>1471</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>1472</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>1473</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>1474</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
         <v>334</v>
       </c>
       <c r="M10" s="24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N10" s="24" t="s">
         <v>1475</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>1476</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>1477</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>399</v>
@@ -40081,12 +40120,12 @@
       <c r="C11" s="33"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -40106,14 +40145,14 @@
         <v>1167</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
         <v>1169</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>362</v>
@@ -40139,13 +40178,13 @@
         <v>1158</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H13" s="57" t="s">
         <v>105</v>
@@ -40157,7 +40196,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -40172,20 +40211,20 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>1480</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>1481</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>1482</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>1483</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>1484</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -40245,7 +40284,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -40288,13 +40327,13 @@
       <c r="B19" s="12"/>
       <c r="C19" s="34"/>
       <c r="D19" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>1184</v>
@@ -40303,10 +40342,10 @@
         <v>1176</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="56"/>
@@ -40316,10 +40355,10 @@
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q19" s="56" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="R19" s="56" t="s">
         <v>1179</v>
@@ -40329,13 +40368,13 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G20" s="60" t="s">
         <v>1184</v>
@@ -40344,10 +40383,10 @@
         <v>1176</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60" t="s">
@@ -40357,16 +40396,16 @@
         <v>1165</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O20" s="60" t="s">
         <v>407</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="R20" s="60" t="s">
         <v>1179</v>
@@ -40380,25 +40419,25 @@
         <v>5</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H21" s="57" t="s">
         <v>1175</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J21" s="57" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>23</v>
@@ -40407,10 +40446,10 @@
         <v>252</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O21" s="46" t="s">
         <v>194</v>
@@ -40419,7 +40458,7 @@
         <v>1160</v>
       </c>
       <c r="Q21" s="57" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R21" s="57" t="s">
         <v>185</v>
@@ -40430,47 +40469,47 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>1485</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="F22" s="24" t="s">
         <v>1486</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="G22" s="24" t="s">
         <v>1487</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="H22" s="24" t="s">
         <v>1488</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="I22" s="24" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>1489</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>1490</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M22" s="24" t="s">
         <v>1491</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="N22" s="24" t="s">
         <v>1492</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="O22" s="24" t="s">
         <v>1493</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="P22" s="24" t="s">
         <v>1494</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="Q22" s="24" t="s">
         <v>1495</v>
       </c>
-      <c r="Q22" s="24" t="s">
-        <v>1496</v>
-      </c>
       <c r="R22" s="24" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -40524,7 +40563,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -40616,7 +40655,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -40670,27 +40709,27 @@
         <v>307</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="56" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H31" s="56" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="N31" s="56"/>
       <c r="O31" s="56" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P31" s="56"/>
       <c r="Q31" s="56" t="s">
@@ -40709,33 +40748,33 @@
         <v>307</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H32" s="60" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P32" s="60" t="s">
         <v>1170</v>
@@ -40759,25 +40798,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F33" s="46" t="s">
         <v>1180</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I33" s="46" t="s">
         <v>111</v>
       </c>
       <c r="J33" s="57" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K33" s="46" t="s">
         <v>23</v>
@@ -40795,7 +40834,7 @@
         <v>31</v>
       </c>
       <c r="P33" s="46" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q33" s="57" t="s">
         <v>237</v>
@@ -40809,36 +40848,36 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>1497</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="F34" s="24" t="s">
         <v>1498</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="G34" s="24" t="s">
         <v>1499</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="H34" s="24" t="s">
         <v>1500</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="I34" s="24" t="s">
         <v>1501</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="J34" s="24" t="s">
         <v>1502</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>1503</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24" t="s">
+        <v>1503</v>
+      </c>
+      <c r="M34" s="24" t="s">
         <v>1504</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>1505</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1170</v>
@@ -40847,7 +40886,7 @@
         <v>443</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -40859,10 +40898,10 @@
         <v>461</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="56"/>
@@ -40884,10 +40923,10 @@
         <v>461</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
@@ -40910,7 +40949,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E37" s="57" t="s">
         <v>1162</v>
@@ -40922,13 +40961,13 @@
         <v>30</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -40944,13 +40983,13 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="24" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>1506</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>1507</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>1508</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -41013,7 +41052,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
@@ -41062,20 +41101,20 @@
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="Q43" s="56" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="R43" s="56"/>
       <c r="V43" s="63"/>
@@ -41083,10 +41122,10 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="60" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>303</v>
@@ -41101,27 +41140,27 @@
         <v>460</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="K44" s="60"/>
       <c r="L44" s="60" t="s">
         <v>481</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="N44" s="60"/>
       <c r="O44" s="60" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -41132,10 +41171,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>71</v>
@@ -41144,13 +41183,13 @@
         <v>170</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I45" s="46" t="s">
         <v>262</v>
       </c>
       <c r="J45" s="57" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K45" s="46" t="s">
         <v>23</v>
@@ -41159,7 +41198,7 @@
         <v>296</v>
       </c>
       <c r="M45" s="46" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N45" s="46" t="s">
         <v>23</v>
@@ -41168,13 +41207,13 @@
         <v>119</v>
       </c>
       <c r="P45" s="46" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q45" s="57" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R45" s="46" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="S45" s="21"/>
       <c r="V45" s="63"/>
@@ -41182,10 +41221,10 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>1509</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>1510</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>303</v>
@@ -41197,30 +41236,30 @@
         <v>403</v>
       </c>
       <c r="I46" s="24" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J46" s="24" t="s">
         <v>1511</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>1512</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="24" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M46" s="24" t="s">
         <v>1513</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>1514</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="24" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P46" s="24" t="s">
         <v>1515</v>
       </c>
-      <c r="P46" s="24" t="s">
+      <c r="Q46" s="24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="R46" s="24" t="s">
         <v>1516</v>
-      </c>
-      <c r="Q46" s="24" t="s">
-        <v>1420</v>
-      </c>
-      <c r="R46" s="24" t="s">
-        <v>1517</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -41229,13 +41268,13 @@
       <c r="B47" s="12"/>
       <c r="C47" s="34"/>
       <c r="D47" s="56" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
@@ -41254,13 +41293,13 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="60" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G48" s="60"/>
       <c r="H48" s="60"/>
@@ -41283,19 +41322,19 @@
         <v>12</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G49" s="46" t="s">
         <v>30</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
@@ -41313,13 +41352,13 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>1518</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="F50" s="24" t="s">
         <v>1519</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>1520</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -41382,7 +41421,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
@@ -41425,15 +41464,15 @@
       <c r="B55" s="12"/>
       <c r="C55" s="34"/>
       <c r="D55" s="56" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="56" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I55" s="56" t="s">
         <v>1168</v>
@@ -41447,7 +41486,7 @@
         <v>1174</v>
       </c>
       <c r="P55" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q55" s="56"/>
       <c r="R55" s="56"/>
@@ -41456,19 +41495,19 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E56" s="60" t="s">
         <v>308</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G56" s="60" t="s">
         <v>1183</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I56" s="60" t="s">
         <v>1168</v>
@@ -41488,7 +41527,7 @@
         <v>1174</v>
       </c>
       <c r="P56" s="60" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q56" s="60" t="s">
         <v>389</v>
@@ -41505,10 +41544,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F57" s="57" t="s">
         <v>1157</v>
@@ -41520,7 +41559,7 @@
         <v>209</v>
       </c>
       <c r="I57" s="57" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="J57" s="46" t="s">
         <v>280</v>
@@ -41555,45 +41594,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E58" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="F58" s="24" t="s">
         <v>1522</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="G58" s="24" t="s">
         <v>1523</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="H58" s="24" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I58" s="24" t="s">
         <v>1524</v>
       </c>
-      <c r="H58" s="24" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>1525</v>
-      </c>
       <c r="J58" s="24" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="24" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="M58" s="24" t="s">
         <v>45</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P58" s="24" t="s">
         <v>1527</v>
-      </c>
-      <c r="P58" s="24" t="s">
-        <v>1528</v>
       </c>
       <c r="Q58" s="24" t="s">
         <v>389</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -41604,7 +41643,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -41626,10 +41665,10 @@
         <v>1174</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -41658,7 +41697,7 @@
         <v>26</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G61" s="61" t="s">
         <v>30</v>
@@ -41682,13 +41721,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E62" s="24" t="s">
         <v>1527</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>1528</v>
-      </c>
       <c r="F62" s="24" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -50110,410 +50149,410 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="149" priority="93">
+    <cfRule type="expression" dxfId="151" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="93">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="94">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="147" priority="57">
+    <cfRule type="expression" dxfId="149" priority="58">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="57">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="58">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="145" priority="55">
+    <cfRule type="expression" dxfId="147" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="56">
+    <cfRule type="expression" dxfId="146" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="143" priority="53">
+    <cfRule type="expression" dxfId="145" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="141" priority="51">
+    <cfRule type="expression" dxfId="143" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="52">
+    <cfRule type="expression" dxfId="142" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="139" priority="49">
+    <cfRule type="expression" dxfId="141" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="50">
+    <cfRule type="expression" dxfId="140" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="137" priority="47">
+    <cfRule type="expression" dxfId="139" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="48">
+    <cfRule type="expression" dxfId="138" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="135" priority="45">
+    <cfRule type="expression" dxfId="137" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="133" priority="43">
+    <cfRule type="expression" dxfId="135" priority="44">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="131" priority="41">
+    <cfRule type="expression" dxfId="133" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="129" priority="39">
+    <cfRule type="expression" dxfId="131" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="127" priority="37">
+    <cfRule type="expression" dxfId="129" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="38">
+    <cfRule type="expression" dxfId="128" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="125" priority="35">
+    <cfRule type="expression" dxfId="127" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="36">
+    <cfRule type="expression" dxfId="126" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="123" priority="33">
+    <cfRule type="expression" dxfId="125" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="34">
+    <cfRule type="expression" dxfId="124" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="121" priority="31">
+    <cfRule type="expression" dxfId="123" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="32">
+    <cfRule type="expression" dxfId="122" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="119" priority="29">
+    <cfRule type="expression" dxfId="121" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="117" priority="27">
+    <cfRule type="expression" dxfId="119" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="28">
+    <cfRule type="expression" dxfId="118" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="115" priority="25">
+    <cfRule type="expression" dxfId="117" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="26">
+    <cfRule type="expression" dxfId="116" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="113" priority="23">
+    <cfRule type="expression" dxfId="115" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="111" priority="21">
+    <cfRule type="expression" dxfId="113" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="109" priority="19">
+    <cfRule type="expression" dxfId="111" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="20">
+    <cfRule type="expression" dxfId="110" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="107" priority="17">
+    <cfRule type="expression" dxfId="109" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="18">
+    <cfRule type="expression" dxfId="108" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="105" priority="15">
+    <cfRule type="expression" dxfId="107" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="16">
+    <cfRule type="expression" dxfId="106" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="103" priority="13">
+    <cfRule type="expression" dxfId="105" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="101" priority="11">
+    <cfRule type="expression" dxfId="103" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="12">
+    <cfRule type="expression" dxfId="102" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="99" priority="9">
+    <cfRule type="expression" dxfId="101" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="99" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="97" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="93" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="4">
+    <cfRule type="expression" dxfId="94" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="91" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="92" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="89" priority="101">
+    <cfRule type="expression" dxfId="91" priority="102">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="101">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="102">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="87" priority="99">
+    <cfRule type="expression" dxfId="89" priority="100">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="99">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="100">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="85" priority="97">
+    <cfRule type="expression" dxfId="87" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="97">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="98">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="83" priority="95">
+    <cfRule type="expression" dxfId="85" priority="96">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="95">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="96">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="81" priority="91">
+    <cfRule type="expression" dxfId="83" priority="92">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="91">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="92">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="79" priority="89">
+    <cfRule type="expression" dxfId="81" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="90">
+    <cfRule type="expression" dxfId="80" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="77" priority="87">
+    <cfRule type="expression" dxfId="79" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="88">
+    <cfRule type="expression" dxfId="78" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="75" priority="85">
+    <cfRule type="expression" dxfId="77" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="86">
+    <cfRule type="expression" dxfId="76" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="73" priority="83">
+    <cfRule type="expression" dxfId="75" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="84">
+    <cfRule type="expression" dxfId="74" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="71" priority="81">
+    <cfRule type="expression" dxfId="73" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="82">
+    <cfRule type="expression" dxfId="72" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="69" priority="79">
+    <cfRule type="expression" dxfId="71" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="80">
+    <cfRule type="expression" dxfId="70" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="67" priority="77">
+    <cfRule type="expression" dxfId="69" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="78">
+    <cfRule type="expression" dxfId="68" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="65" priority="75">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="76">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="63" priority="73">
+    <cfRule type="expression" dxfId="65" priority="74">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="73">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="61" priority="71">
+    <cfRule type="expression" dxfId="63" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="71">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="59" priority="69">
+    <cfRule type="expression" dxfId="61" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="69">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="57" priority="67">
+    <cfRule type="expression" dxfId="59" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="68">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="55" priority="65">
+    <cfRule type="expression" dxfId="57" priority="66">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="65">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="66">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="53" priority="63">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="64">
+    <cfRule type="expression" dxfId="54" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="51" priority="61">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62">
+    <cfRule type="expression" dxfId="52" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="49" priority="59">
+    <cfRule type="expression" dxfId="51" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="60">
+    <cfRule type="expression" dxfId="50" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50591,13 +50630,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D4" t="s">
         <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -50608,13 +50647,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D5" t="s">
         <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -50642,7 +50681,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D7" t="s">
         <v>499</v>
@@ -50682,7 +50721,7 @@
         <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -50716,7 +50755,7 @@
         <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -50733,29 +50772,29 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D13" t="s">
         <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -50772,19 +50811,19 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D15" t="s">
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -50795,24 +50834,24 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D16" t="s">
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D17" t="s">
         <v>499</v>
@@ -50823,41 +50862,41 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D18" t="s">
         <v>499</v>
       </c>
       <c r="E18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D19" t="s">
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -50869,7 +50908,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -50886,46 +50925,46 @@
         <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D22" t="s">
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D23" t="s">
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -50937,7 +50976,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -50948,35 +50987,35 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D26" t="s">
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -50988,35 +51027,35 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D28" t="s">
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D29" t="s">
         <v>499</v>
@@ -51027,36 +51066,36 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D30" t="s">
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D31" t="s">
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -51067,13 +51106,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D32" t="s">
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -51084,13 +51123,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D33" t="s">
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -51107,12 +51146,12 @@
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -51135,13 +51174,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D36" t="s">
         <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -51152,7 +51191,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D37" t="s">
         <v>499</v>
@@ -51163,13 +51202,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D38" t="s">
         <v>499</v>
@@ -51186,7 +51225,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D39" t="s">
         <v>499</v>
@@ -51197,13 +51236,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D40" t="s">
         <v>499</v>
@@ -51214,30 +51253,30 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D41" t="s">
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D42" t="s">
         <v>499</v>
@@ -51254,13 +51293,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D43" t="s">
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -51271,18 +51310,18 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D44" t="s">
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -51294,7 +51333,7 @@
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -51311,7 +51350,7 @@
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -51322,13 +51361,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D47" t="s">
         <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
@@ -58732,194 +58771,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="45" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="43" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="41" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="39" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="37" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="33" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="31" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="27" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="25" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="19" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="17" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="11" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="7" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
+    <cfRule type="expression" dxfId="6" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="3" priority="43">
+    <cfRule type="expression" dxfId="5" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="42">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B14A0A-F683-4E03-8629-3E43D9C6EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC02EBFE-19B7-4497-8F61-6092D06DF8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="人工標音字庫" sheetId="277" r:id="rId2"/>
-    <sheet name="標音字庫" sheetId="303" r:id="rId3"/>
-    <sheet name="缺字表" sheetId="302" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="330" r:id="rId2"/>
+    <sheet name="標音字庫" sheetId="329" r:id="rId3"/>
+    <sheet name="缺字表" sheetId="328" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (白話音)" sheetId="279" r:id="rId6"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId7"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="1685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1619">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5225,15 +5225,6 @@
     <t>bbo2</t>
   </si>
   <si>
-    <t>(45, 16); (45, 16)</t>
-  </si>
-  <si>
-    <t>(49, 5); (49, 5)</t>
-  </si>
-  <si>
-    <t>(57, 4); (57, 4)</t>
-  </si>
-  <si>
     <t>oo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5317,99 +5308,6 @@
     <t>ging5</t>
   </si>
   <si>
-    <t>(21, 4); (21, 4)</t>
-  </si>
-  <si>
-    <t>(21, 5); (21, 5)</t>
-  </si>
-  <si>
-    <t>(21, 6); (21, 6)</t>
-  </si>
-  <si>
-    <t>(21, 7); (21, 7)</t>
-  </si>
-  <si>
-    <t>(21, 8); (21, 8)</t>
-  </si>
-  <si>
-    <t>(21, 9); (21, 9)</t>
-  </si>
-  <si>
-    <t>(21, 10); (21, 10)</t>
-  </si>
-  <si>
-    <t>(21, 13); (21, 13)</t>
-  </si>
-  <si>
-    <t>(21, 16); (21, 16)</t>
-  </si>
-  <si>
-    <t>(21, 17); (21, 17)</t>
-  </si>
-  <si>
-    <t>(33, 4); (33, 4)</t>
-  </si>
-  <si>
-    <t>(33, 5); (33, 5)</t>
-  </si>
-  <si>
-    <t>(33, 7); (33, 7)</t>
-  </si>
-  <si>
-    <t>(33, 8); (33, 8)</t>
-  </si>
-  <si>
-    <t>(33, 10); (33, 10)</t>
-  </si>
-  <si>
-    <t>(33, 13); (33, 13)</t>
-  </si>
-  <si>
-    <t>(33, 15); (33, 15)</t>
-  </si>
-  <si>
-    <t>(33, 17); (33, 17)</t>
-  </si>
-  <si>
-    <t>(37, 4); (37, 4)</t>
-  </si>
-  <si>
-    <t>(37, 5); (37, 5)</t>
-  </si>
-  <si>
-    <t>(37, 6); (37, 6)</t>
-  </si>
-  <si>
-    <t>(45, 10); (45, 10)</t>
-  </si>
-  <si>
-    <t>(45, 15); (45, 15)</t>
-  </si>
-  <si>
-    <t>(45, 17); (45, 17)</t>
-  </si>
-  <si>
-    <t>(49, 4); (49, 4)</t>
-  </si>
-  <si>
-    <t>(49, 6); (49, 6)</t>
-  </si>
-  <si>
-    <t>(57, 6); (57, 6)</t>
-  </si>
-  <si>
-    <t>(57, 8); (57, 8)</t>
-  </si>
-  <si>
-    <t>(57, 9); (57, 9)</t>
-  </si>
-  <si>
-    <t>(57, 15); (57, 15)</t>
-  </si>
-  <si>
-    <t>(57, 16); (57, 16)</t>
-  </si>
-  <si>
     <t>tu2</t>
   </si>
   <si>
@@ -5597,15 +5495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(5, 13); (5, 13)</t>
-  </si>
-  <si>
-    <t>(5, 17); (5, 17)</t>
-  </si>
-  <si>
-    <t>(9, 18); (9, 18)</t>
-  </si>
-  <si>
     <t>Ú</t>
   </si>
   <si>
@@ -5656,106 +5545,19 @@
     <t>Tánn</t>
   </si>
   <si>
-    <t>(5, 4); (5, 4)</t>
-  </si>
-  <si>
-    <t>(5, 5); (5, 5)</t>
-  </si>
-  <si>
-    <t>(5, 7); (5, 7)</t>
-  </si>
-  <si>
-    <t>(5, 9); (5, 9)</t>
-  </si>
-  <si>
-    <t>(5, 10); (5, 10)</t>
-  </si>
-  <si>
-    <t>(5, 12); (5, 12)</t>
-  </si>
-  <si>
-    <t>(5, 14); (5, 16); (33, 18); (57, 18); (5, 14); (5, 16); (33, 18)</t>
-  </si>
-  <si>
-    <t>(5, 18); (5, 18)</t>
-  </si>
-  <si>
-    <t>(9, 4); (57, 13); (9, 4); (57, 13)</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 6)</t>
-  </si>
-  <si>
-    <t>(9, 7); (21, 18); (9, 7); (21, 18)</t>
-  </si>
-  <si>
-    <t>(9, 9); (9, 9)</t>
-  </si>
-  <si>
-    <t>(9, 13); (9, 13)</t>
-  </si>
-  <si>
-    <t>(13, 5); (61, 6); (13, 5); (61, 6)</t>
-  </si>
-  <si>
-    <t>(13, 8); (13, 8)</t>
-  </si>
-  <si>
-    <t>(5, 4); (5, 4); (5, 4); (5, 4); (5, 4)</t>
-  </si>
-  <si>
-    <t>(5, 5); (5, 5); (5, 5); (5, 5); (5, 5)</t>
-  </si>
-  <si>
-    <t>(5, 7); (5, 7); (5, 7); (5, 7); (5, 7)</t>
-  </si>
-  <si>
-    <t>(5, 9); (5, 9); (5, 9); (5, 9); (5, 9)</t>
-  </si>
-  <si>
-    <t>(5, 10); (5, 10); (5, 10); (5, 10); (5, 10)</t>
-  </si>
-  <si>
-    <t>(5, 12); (5, 12); (5, 12); (5, 12); (5, 12)</t>
-  </si>
-  <si>
-    <t>(5, 14); (5, 14); (5, 14); (5, 14); (33, 18); (5, 14); (5, 16); (33, 18)</t>
-  </si>
-  <si>
-    <t>(5, 18); (5, 18); (5, 18); (5, 18); (5, 18)</t>
-  </si>
-  <si>
-    <t>(9, 4); (9, 4); (9, 4); (57, 13); (9, 4); (57, 13); (9, 4); (57, 13)</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 6); (9, 6); (9, 6); (9, 6)</t>
-  </si>
-  <si>
-    <t>(9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18)</t>
-  </si>
-  <si>
-    <t>(9, 9); (9, 9); (9, 9); (9, 9); (9, 9)</t>
-  </si>
-  <si>
-    <t>(9, 13); (9, 13); (9, 13); (9, 13); (9, 13)</t>
-  </si>
-  <si>
-    <t>(13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6)</t>
-  </si>
-  <si>
-    <t>(13, 8); (13, 8); (13, 8); (13, 8); (13, 8)</t>
-  </si>
-  <si>
-    <t>(21, 8); (21, 8); (21, 8)</t>
-  </si>
-  <si>
-    <t>(5, 13); (5, 13); (5, 13)</t>
-  </si>
-  <si>
-    <t>(5, 17); (5, 17); (5, 17)</t>
-  </si>
-  <si>
-    <t>(9, 18); (9, 18); (9, 18)</t>
+    <t>(57, 18)</t>
+  </si>
+  <si>
+    <t>(5, 14); (5, 16)</t>
+  </si>
+  <si>
+    <t>(57, 13)</t>
+  </si>
+  <si>
+    <t>(9, 7)</t>
+  </si>
+  <si>
+    <t>(21, 18)</t>
   </si>
 </sst>
 </file>
@@ -6194,7 +5996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6396,7 +6198,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11110,7 +10918,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -15427,912 +15235,347 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32DC73A-8612-4198-B0A2-7DB0263E3282}">
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66716CFE-44BF-4E4D-9CD1-A5C008FE7600}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1161</v>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>1173</v>
       </c>
       <c r="C2" t="s">
         <v>1173</v>
       </c>
       <c r="D2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>167</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>386</v>
       </c>
       <c r="C3" t="s">
         <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>395</v>
       </c>
       <c r="C4" t="s">
-        <v>1240</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>222</v>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>1225</v>
       </c>
       <c r="C5" t="s">
         <v>1225</v>
       </c>
       <c r="D5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>116</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>346</v>
       </c>
       <c r="C6" t="s">
         <v>346</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1163</v>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>1171</v>
       </c>
       <c r="C7" t="s">
         <v>1171</v>
       </c>
       <c r="D7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D8" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>164</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
         <v>334</v>
       </c>
-      <c r="E8" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D10" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>291</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="D12" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>199</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
         <v>359</v>
       </c>
-      <c r="D10" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="C13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>1177</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B15" t="s">
         <v>1178</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C15" t="s">
         <v>1178</v>
       </c>
-      <c r="E11" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="D15" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>185</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B16" t="s">
         <v>1179</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" t="s">
         <v>353</v>
       </c>
-      <c r="E12" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="C17" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>1241</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B18" t="s">
         <v>1226</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C18" t="s">
         <v>1226</v>
       </c>
-      <c r="E13" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="D18" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>1198</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D19" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>1248</v>
       </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B21" t="s">
         <v>1455</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C21" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D21" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B22" t="s">
         <v>380</v>
       </c>
-      <c r="E15" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="C22" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>105</v>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B23" t="s">
         <v>1379</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C23" t="s">
         <v>1379</v>
       </c>
-      <c r="E16" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D17" t="s">
-        <v>499</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D18" t="s">
-        <v>499</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D20" t="s">
-        <v>499</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="D23" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>1175</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B24" t="s">
         <v>1176</v>
       </c>
-      <c r="D21" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D23" t="s">
-        <v>499</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
       <c r="C24" t="s">
-        <v>1165</v>
+        <v>1613</v>
       </c>
       <c r="D24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D25" t="s">
-        <v>499</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>307</v>
-      </c>
-      <c r="D27" t="s">
-        <v>499</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D28" t="s">
-        <v>499</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D29" t="s">
-        <v>499</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D30" t="s">
-        <v>499</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D31" t="s">
-        <v>499</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D32" t="s">
-        <v>499</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D33" t="s">
-        <v>499</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>443</v>
-      </c>
-      <c r="D34" t="s">
-        <v>499</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>461</v>
-      </c>
-      <c r="D35" t="s">
-        <v>499</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D37" t="s">
-        <v>499</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D38" t="s">
-        <v>499</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D39" t="s">
-        <v>499</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D40" t="s">
-        <v>499</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D41" t="s">
-        <v>499</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D42" t="s">
-        <v>499</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D43" t="s">
-        <v>499</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D44" t="s">
-        <v>499</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D45" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D46" t="s">
-        <v>499</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D47" t="s">
-        <v>499</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D48" t="s">
-        <v>499</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D49" t="s">
-        <v>499</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D50" t="s">
-        <v>499</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>325</v>
-      </c>
-      <c r="D52" t="s">
-        <v>316</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>421</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1684</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
@@ -16342,1439 +15585,935 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF241336-ABD4-4B27-9513-7027DBA72306}">
-  <dimension ref="A1:E84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7206F1-181A-4945-A97D-CB8FCAC48960}">
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>1205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1285</v>
       </c>
       <c r="C2" t="s">
-        <v>1173</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>1253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1243</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>1285</v>
+        <v>499</v>
       </c>
       <c r="D4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C5" t="s">
         <v>499</v>
       </c>
-      <c r="E4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>395</v>
-      </c>
       <c r="D5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>1156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1164</v>
       </c>
       <c r="C6" t="s">
-        <v>1225</v>
+        <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>1202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1181</v>
       </c>
       <c r="C8" t="s">
-        <v>1243</v>
+        <v>499</v>
       </c>
       <c r="D8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
         <v>499</v>
       </c>
-      <c r="E8" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1171</v>
-      </c>
       <c r="D9" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>1158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1167</v>
       </c>
       <c r="C10" t="s">
-        <v>1586</v>
+        <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" t="s">
+        <v>499</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C43" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>460</v>
+      </c>
+      <c r="C45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" t="s">
+        <v>481</v>
+      </c>
+      <c r="C47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C51" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C53" t="s">
+        <v>499</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B57" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" t="s">
+        <v>483</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>354</v>
+      </c>
+      <c r="C65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>164</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B66" t="s">
         <v>334</v>
       </c>
-      <c r="E11" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>359</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>457</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C66" t="s">
         <v>499</v>
       </c>
-      <c r="E17" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D20" t="s">
-        <v>499</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D23" t="s">
-        <v>499</v>
-      </c>
-      <c r="E23" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E26" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D27" t="s">
-        <v>380</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D28" t="s">
-        <v>499</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" t="s">
-        <v>499</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>420</v>
-      </c>
-      <c r="D31" t="s">
-        <v>499</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D32" t="s">
-        <v>499</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D33" t="s">
-        <v>499</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D34" t="s">
-        <v>499</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>499</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>252</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>499</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D39" t="s">
-        <v>499</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D40" t="s">
-        <v>499</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>194</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>407</v>
-      </c>
-      <c r="D41" t="s">
-        <v>499</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D42" t="s">
-        <v>499</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D43" t="s">
-        <v>499</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D44" t="s">
-        <v>499</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>319</v>
-      </c>
-      <c r="D45" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D46" t="s">
-        <v>499</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D47" t="s">
-        <v>499</v>
-      </c>
-      <c r="E47" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>401</v>
-      </c>
-      <c r="D48" t="s">
-        <v>499</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" t="s">
-        <v>499</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D50" t="s">
-        <v>499</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D51" t="s">
-        <v>499</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D52" t="s">
-        <v>499</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>345</v>
-      </c>
-      <c r="D53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D54" t="s">
-        <v>499</v>
-      </c>
-      <c r="E54" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>443</v>
-      </c>
-      <c r="D55" t="s">
-        <v>499</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D56" t="s">
-        <v>499</v>
-      </c>
-      <c r="E56" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
-        <v>499</v>
-      </c>
-      <c r="E58" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D59" t="s">
-        <v>499</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D60" t="s">
-        <v>499</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>303</v>
-      </c>
-      <c r="D61" t="s">
-        <v>499</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>389</v>
-      </c>
-      <c r="D62" t="s">
-        <v>499</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>403</v>
-      </c>
-      <c r="D63" t="s">
-        <v>499</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>262</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>460</v>
-      </c>
-      <c r="D64" t="s">
-        <v>499</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D65" t="s">
-        <v>499</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>296</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>481</v>
-      </c>
       <c r="D66" t="s">
-        <v>499</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D67" t="s">
-        <v>499</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>348</v>
-      </c>
-      <c r="D68" t="s">
-        <v>499</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D69" t="s">
-        <v>499</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D70" t="s">
-        <v>499</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D71" t="s">
-        <v>499</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D72" t="s">
-        <v>499</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D73" t="s">
-        <v>499</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D74" t="s">
-        <v>499</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D75" t="s">
-        <v>499</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" t="s">
-        <v>499</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D77" t="s">
-        <v>499</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D78" t="s">
-        <v>499</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>372</v>
-      </c>
-      <c r="D79" t="s">
-        <v>499</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D80" t="s">
-        <v>499</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>280</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>362</v>
-      </c>
-      <c r="D81" t="s">
-        <v>499</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>299</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>483</v>
-      </c>
-      <c r="D82" t="s">
-        <v>499</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>364</v>
-      </c>
-      <c r="D83" t="s">
-        <v>499</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>354</v>
-      </c>
-      <c r="D84" t="s">
-        <v>499</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -17784,27 +16523,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D2D1B5-D8F4-4638-865D-4925CB562E53}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF32A12-AAF2-48E0-97F9-88A8DE2E9F80}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -17818,7 +16554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -17955,7 +16693,7 @@
         <v>1171</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>1586</v>
+        <v>1552</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>57</v>
@@ -18003,14 +16741,14 @@
         <v>1457</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1587</v>
+        <v>1553</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
       <c r="Q4" s="60" t="s">
         <v>549</v>
@@ -18025,49 +16763,49 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="67" t="s">
         <v>1161</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="67" t="s">
         <v>1205</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="67" t="s">
         <v>1253</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="67" t="s">
         <v>1163</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="67" t="s">
         <v>1252</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="67" t="s">
         <v>291</v>
       </c>
       <c r="S5" s="21"/>
@@ -18086,33 +16824,33 @@
         <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1639</v>
+        <v>1602</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
         <v>1354</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>1315</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1640</v>
+        <v>1603</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1643</v>
+        <v>1396</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1643</v>
+        <v>1396</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1641</v>
+        <v>1604</v>
       </c>
       <c r="R6" s="24" t="s">
         <v>722</v>
@@ -18141,7 +16879,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -18156,14 +16894,14 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="60" t="s">
-        <v>1631</v>
+        <v>645</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
         <v>1355</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>633</v>
+        <v>1311</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
@@ -18179,7 +16917,7 @@
         <v>1262</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>1591</v>
+        <v>1557</v>
       </c>
       <c r="N8" s="60" t="s">
         <v>704</v>
@@ -18192,7 +16930,7 @@
         <v>597</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>1592</v>
+        <v>1558</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -18202,49 +16940,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="67" t="s">
         <v>1177</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="67" t="s">
         <v>1241</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="67" t="s">
         <v>1242</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="67" t="s">
         <v>1156</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="67" t="s">
         <v>1198</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="67" t="s">
         <v>1202</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="67" t="s">
         <v>1209</v>
       </c>
-      <c r="R9" s="57" t="s">
+      <c r="R9" s="67" t="s">
         <v>210</v>
       </c>
       <c r="S9" s="21"/>
@@ -18254,14 +16992,14 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="24" t="s">
-        <v>1633</v>
+        <v>567</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
         <v>1397</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1632</v>
+        <v>1318</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>1319</v>
@@ -18274,20 +17012,20 @@
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>1644</v>
+        <v>1607</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1642</v>
+        <v>1605</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>1273</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1645</v>
+        <v>1608</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>730</v>
@@ -18325,7 +17063,7 @@
         <v>1321</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>691</v>
+        <v>1456</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
@@ -18354,28 +17092,28 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="67" t="s">
         <v>1158</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="67" t="s">
         <v>1233</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="67" t="s">
         <v>1478</v>
       </c>
       <c r="L13" s="41"/>
@@ -18394,7 +17132,7 @@
         <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1634</v>
+        <v>1530</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
@@ -18463,7 +17201,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="46" t="str">
+      <c r="D17" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18513,7 +17251,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56" t="s">
-        <v>1650</v>
+        <v>1613</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -18525,7 +17263,7 @@
       <c r="P19" s="56"/>
       <c r="Q19" s="56"/>
       <c r="R19" s="56" t="s">
-        <v>1629</v>
+        <v>1595</v>
       </c>
       <c r="V19" s="63"/>
     </row>
@@ -18535,10 +17273,10 @@
         <v>774</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>1595</v>
+        <v>1561</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>1596</v>
+        <v>1562</v>
       </c>
       <c r="G20" s="60" t="s">
         <v>864</v>
@@ -18547,7 +17285,7 @@
         <v>1382</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>1597</v>
+        <v>1563</v>
       </c>
       <c r="J20" s="60" t="s">
         <v>722</v>
@@ -18582,49 +17320,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="67" t="s">
         <v>1245</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="67" t="s">
         <v>1203</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="67" t="s">
         <v>1360</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="67" t="s">
         <v>1186</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="67" t="s">
         <v>1175</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="67" t="s">
         <v>1196</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="67" t="s">
         <v>1200</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="67" t="s">
+      <c r="M21" s="68" t="s">
         <v>1221</v>
       </c>
-      <c r="N21" s="46" t="s">
+      <c r="N21" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="O21" s="46" t="s">
+      <c r="O21" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="67" t="s">
         <v>1364</v>
       </c>
-      <c r="Q21" s="46" t="s">
+      <c r="Q21" s="67" t="s">
         <v>1239</v>
       </c>
-      <c r="R21" s="57" t="s">
+      <c r="R21" s="67" t="s">
         <v>185</v>
       </c>
       <c r="S21" s="21"/>
@@ -18633,13 +17371,13 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1594</v>
+        <v>1560</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>517</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1596</v>
+        <v>1562</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>1414</v>
@@ -18648,7 +17386,7 @@
         <v>1394</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1646</v>
+        <v>1609</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>722</v>
@@ -18667,13 +17405,13 @@
         <v>1328</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>1598</v>
+        <v>1564</v>
       </c>
       <c r="Q22" s="24" t="s">
         <v>1407</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1632</v>
+        <v>1598</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -18723,10 +17461,10 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="46" t="str">
+      <c r="E25" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18820,7 +17558,7 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="46" t="str">
+      <c r="D29" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18888,7 +17626,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
       <c r="R31" s="56" t="s">
-        <v>1638</v>
+        <v>1601</v>
       </c>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
@@ -18899,7 +17637,7 @@
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="60" t="s">
-        <v>1599</v>
+        <v>1565</v>
       </c>
       <c r="E32" s="60" t="s">
         <v>555</v>
@@ -18908,7 +17646,7 @@
         <v>1432</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>1601</v>
+        <v>1567</v>
       </c>
       <c r="H32" s="60" t="s">
         <v>734</v>
@@ -18917,14 +17655,14 @@
         <v>607</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1603</v>
+        <v>1569</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
         <v>1434</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>1605</v>
+        <v>1571</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
@@ -18951,49 +17689,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="67" t="s">
         <v>1215</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="67" t="s">
         <v>1223</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="67" t="s">
         <v>1180</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="67" t="s">
         <v>1197</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="67" t="s">
         <v>1255</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="J33" s="67" t="s">
         <v>1193</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="67" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="46" t="s">
+      <c r="N33" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="46" t="s">
+      <c r="O33" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="46" t="s">
+      <c r="P33" s="67" t="s">
         <v>1254</v>
       </c>
-      <c r="Q33" s="46" t="s">
+      <c r="Q33" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="R33" s="57" t="s">
+      <c r="R33" s="67" t="s">
         <v>164</v>
       </c>
       <c r="S33" s="21"/>
@@ -19002,16 +17740,16 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
-        <v>1600</v>
+        <v>1566</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1593</v>
+        <v>1559</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>1433</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1602</v>
+        <v>1568</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>792</v>
@@ -19020,27 +17758,27 @@
         <v>1260</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1604</v>
+        <v>1570</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24" t="s">
         <v>1435</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>1606</v>
+        <v>1572</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1647</v>
+        <v>1610</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1329</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>1648</v>
+        <v>1611</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1643</v>
+        <v>1606</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -19068,10 +17806,10 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="60" t="s">
-        <v>1608</v>
+        <v>1574</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1610</v>
+        <v>1576</v>
       </c>
       <c r="F36" s="60" t="s">
         <v>722</v>
@@ -19096,19 +17834,19 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="67" t="s">
         <v>1212</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="67" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="67" t="s">
         <v>1159</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="46" t="str">
+      <c r="H37" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19135,10 +17873,10 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="24" t="s">
-        <v>1609</v>
+        <v>1575</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>1611</v>
+        <v>1577</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>722</v>
@@ -19203,7 +17941,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="46" t="str">
+      <c r="D41" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19286,7 +18024,7 @@
         <v>862</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>1612</v>
+        <v>1578</v>
       </c>
       <c r="K44" s="60"/>
       <c r="L44" s="60" t="s">
@@ -19300,13 +18038,13 @@
         <v>623</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>1613</v>
+        <v>1579</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1615</v>
+        <v>1581</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -19316,49 +18054,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="67" t="s">
         <v>1191</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="67" t="s">
         <v>1190</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="46" t="s">
+      <c r="H45" s="67" t="s">
         <v>1220</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="46" t="s">
+      <c r="J45" s="67" t="s">
         <v>1257</v>
       </c>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="46" t="s">
+      <c r="L45" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="M45" s="46" t="s">
+      <c r="M45" s="67" t="s">
         <v>1217</v>
       </c>
-      <c r="N45" s="46" t="s">
+      <c r="N45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="46" t="s">
+      <c r="O45" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="P45" s="46" t="s">
+      <c r="P45" s="67" t="s">
         <v>1199</v>
       </c>
-      <c r="Q45" s="46" t="s">
+      <c r="Q45" s="67" t="s">
         <v>1244</v>
       </c>
-      <c r="R45" s="46" t="s">
+      <c r="R45" s="67" t="s">
         <v>1195</v>
       </c>
       <c r="S45" s="21"/>
@@ -19399,13 +18137,13 @@
         <v>623</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1614</v>
+        <v>1580</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>1616</v>
+        <v>1582</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -19436,10 +18174,10 @@
         <v>1351</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>1618</v>
+        <v>1584</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>1619</v>
+        <v>1585</v>
       </c>
       <c r="G48" s="60"/>
       <c r="H48" s="60"/>
@@ -19461,19 +18199,19 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="67" t="s">
         <v>1231</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="67" t="s">
         <v>1189</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="67" t="s">
         <v>1187</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="46" t="str">
+      <c r="H49" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19497,10 +18235,10 @@
         <v>1421</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>1618</v>
+        <v>1584</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1620</v>
+        <v>1586</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -19562,7 +18300,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="46" t="str">
+      <c r="D53" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19617,7 +18355,7 @@
       <c r="K55" s="56"/>
       <c r="L55" s="56"/>
       <c r="M55" s="56" t="s">
-        <v>1631</v>
+        <v>1597</v>
       </c>
       <c r="N55" s="56"/>
       <c r="O55" s="56"/>
@@ -19635,7 +18373,7 @@
         <v>525</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>1621</v>
+        <v>1587</v>
       </c>
       <c r="G56" s="60" t="s">
         <v>1445</v>
@@ -19654,7 +18392,7 @@
         <v>916</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>1631</v>
+        <v>1597</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
@@ -19677,49 +18415,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="67" t="s">
         <v>1214</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="67" t="s">
         <v>1238</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="67" t="s">
         <v>1157</v>
       </c>
-      <c r="G57" s="61" t="s">
+      <c r="G57" s="69" t="s">
         <v>1182</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="46" t="s">
+      <c r="I57" s="67" t="s">
         <v>1250</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="K57" s="46" t="s">
+      <c r="K57" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="M57" s="57" t="s">
+      <c r="M57" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="N57" s="46" t="s">
+      <c r="N57" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="46" t="s">
+      <c r="O57" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="46" t="s">
+      <c r="P57" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" s="46" t="s">
+      <c r="Q57" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="57" t="s">
+      <c r="R57" s="67" t="s">
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
@@ -19728,19 +18466,19 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>1444</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1622</v>
+        <v>1588</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>1446</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>1623</v>
+        <v>1589</v>
       </c>
       <c r="I58" s="24" t="s">
         <v>1423</v>
@@ -19753,20 +18491,20 @@
         <v>1447</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>1633</v>
+        <v>1599</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1649</v>
+        <v>1612</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>1624</v>
+        <v>1590</v>
       </c>
       <c r="Q58" s="24" t="s">
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1643</v>
+        <v>1606</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -19777,7 +18515,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56" t="s">
-        <v>1628</v>
+        <v>1594</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -19824,19 +18562,19 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="G61" s="61" t="s">
+      <c r="G61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="67" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="41"/>
@@ -19855,13 +18593,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1649</v>
+        <v>1612</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>1624</v>
+        <v>1590</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1634</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -28283,410 +27021,410 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="1" priority="98">
+    <cfRule type="expression" dxfId="353" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="97">
+    <cfRule type="expression" dxfId="352" priority="97">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="353" priority="58">
+    <cfRule type="expression" dxfId="351" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="57">
+    <cfRule type="expression" dxfId="350" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="351" priority="55">
+    <cfRule type="expression" dxfId="349" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="56">
+    <cfRule type="expression" dxfId="348" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="349" priority="54">
+    <cfRule type="expression" dxfId="347" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="53">
+    <cfRule type="expression" dxfId="346" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="347" priority="51">
+    <cfRule type="expression" dxfId="345" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="52">
+    <cfRule type="expression" dxfId="344" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="345" priority="49">
+    <cfRule type="expression" dxfId="343" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="50">
+    <cfRule type="expression" dxfId="342" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="343" priority="47">
+    <cfRule type="expression" dxfId="341" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="48">
+    <cfRule type="expression" dxfId="340" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="341" priority="46">
+    <cfRule type="expression" dxfId="339" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="45">
+    <cfRule type="expression" dxfId="338" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="339" priority="44">
+    <cfRule type="expression" dxfId="337" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="43">
+    <cfRule type="expression" dxfId="336" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="337" priority="42">
+    <cfRule type="expression" dxfId="335" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="41">
+    <cfRule type="expression" dxfId="334" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="335" priority="40">
+    <cfRule type="expression" dxfId="333" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="39">
+    <cfRule type="expression" dxfId="332" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="333" priority="37">
+    <cfRule type="expression" dxfId="331" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="38">
+    <cfRule type="expression" dxfId="330" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="331" priority="35">
+    <cfRule type="expression" dxfId="329" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="36">
+    <cfRule type="expression" dxfId="328" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="329" priority="33">
+    <cfRule type="expression" dxfId="327" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="34">
+    <cfRule type="expression" dxfId="326" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="327" priority="31">
+    <cfRule type="expression" dxfId="325" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="32">
+    <cfRule type="expression" dxfId="324" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="325" priority="30">
+    <cfRule type="expression" dxfId="323" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="29">
+    <cfRule type="expression" dxfId="322" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="323" priority="27">
+    <cfRule type="expression" dxfId="321" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="28">
+    <cfRule type="expression" dxfId="320" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="321" priority="25">
+    <cfRule type="expression" dxfId="319" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="26">
+    <cfRule type="expression" dxfId="318" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="319" priority="24">
+    <cfRule type="expression" dxfId="317" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="23">
+    <cfRule type="expression" dxfId="316" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="317" priority="22">
+    <cfRule type="expression" dxfId="315" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="21">
+    <cfRule type="expression" dxfId="314" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="315" priority="19">
+    <cfRule type="expression" dxfId="313" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="20">
+    <cfRule type="expression" dxfId="312" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="313" priority="17">
+    <cfRule type="expression" dxfId="311" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="18">
+    <cfRule type="expression" dxfId="310" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="311" priority="15">
+    <cfRule type="expression" dxfId="309" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="16">
+    <cfRule type="expression" dxfId="308" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="309" priority="14">
+    <cfRule type="expression" dxfId="307" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="13">
+    <cfRule type="expression" dxfId="306" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="307" priority="11">
+    <cfRule type="expression" dxfId="305" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="12">
+    <cfRule type="expression" dxfId="304" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="305" priority="10">
+    <cfRule type="expression" dxfId="303" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="9">
+    <cfRule type="expression" dxfId="302" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="303" priority="8">
+    <cfRule type="expression" dxfId="301" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="7">
+    <cfRule type="expression" dxfId="300" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="301" priority="5">
+    <cfRule type="expression" dxfId="299" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="6">
+    <cfRule type="expression" dxfId="298" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="299" priority="3">
+    <cfRule type="expression" dxfId="297" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="4">
+    <cfRule type="expression" dxfId="296" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="297" priority="1">
+    <cfRule type="expression" dxfId="295" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="2">
+    <cfRule type="expression" dxfId="294" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="295" priority="144">
+    <cfRule type="expression" dxfId="293" priority="144">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="143">
+    <cfRule type="expression" dxfId="292" priority="143">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="293" priority="142">
+    <cfRule type="expression" dxfId="291" priority="142">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="141">
+    <cfRule type="expression" dxfId="290" priority="141">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="291" priority="140">
+    <cfRule type="expression" dxfId="289" priority="140">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="139">
+    <cfRule type="expression" dxfId="288" priority="139">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="289" priority="138">
+    <cfRule type="expression" dxfId="287" priority="138">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="137">
+    <cfRule type="expression" dxfId="286" priority="137">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="287" priority="94">
+    <cfRule type="expression" dxfId="285" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="93">
+    <cfRule type="expression" dxfId="284" priority="93">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="285" priority="91">
+    <cfRule type="expression" dxfId="283" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="92">
+    <cfRule type="expression" dxfId="282" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="283" priority="89">
+    <cfRule type="expression" dxfId="281" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="90">
+    <cfRule type="expression" dxfId="280" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="281" priority="87">
+    <cfRule type="expression" dxfId="279" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="88">
+    <cfRule type="expression" dxfId="278" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="279" priority="85">
+    <cfRule type="expression" dxfId="277" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="86">
+    <cfRule type="expression" dxfId="276" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="277" priority="83">
+    <cfRule type="expression" dxfId="275" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="84">
+    <cfRule type="expression" dxfId="274" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="275" priority="81">
+    <cfRule type="expression" dxfId="273" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="82">
+    <cfRule type="expression" dxfId="272" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="273" priority="79">
+    <cfRule type="expression" dxfId="271" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="80">
+    <cfRule type="expression" dxfId="270" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="271" priority="77">
+    <cfRule type="expression" dxfId="269" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="78">
+    <cfRule type="expression" dxfId="268" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="269" priority="76">
+    <cfRule type="expression" dxfId="267" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="75">
+    <cfRule type="expression" dxfId="266" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="267" priority="74">
+    <cfRule type="expression" dxfId="265" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="73">
+    <cfRule type="expression" dxfId="264" priority="73">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="265" priority="72">
+    <cfRule type="expression" dxfId="263" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="71">
+    <cfRule type="expression" dxfId="262" priority="71">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="263" priority="70">
+    <cfRule type="expression" dxfId="261" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="69">
+    <cfRule type="expression" dxfId="260" priority="69">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="261" priority="68">
+    <cfRule type="expression" dxfId="259" priority="68">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="67">
+    <cfRule type="expression" dxfId="258" priority="67">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="259" priority="63">
+    <cfRule type="expression" dxfId="257" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="64">
+    <cfRule type="expression" dxfId="256" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="257" priority="61">
+    <cfRule type="expression" dxfId="255" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="62">
+    <cfRule type="expression" dxfId="254" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="255" priority="59">
+    <cfRule type="expression" dxfId="253" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="60">
+    <cfRule type="expression" dxfId="252" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28838,7 +27576,7 @@
         <v>1457</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>1587</v>
+        <v>1553</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>840</v>
@@ -28946,7 +27684,7 @@
         <v>164</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>1588</v>
+        <v>1554</v>
       </c>
       <c r="R5" s="57" t="s">
         <v>291</v>
@@ -28974,13 +27712,13 @@
         <v>1354</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>1315</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>1317</v>
@@ -29022,14 +27760,14 @@
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56" t="s">
-        <v>1591</v>
+        <v>1557</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="56" t="s">
-        <v>1592</v>
+        <v>1558</v>
       </c>
       <c r="S7" s="29"/>
       <c r="V7" s="63"/>
@@ -29090,10 +27828,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>1589</v>
+        <v>1555</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>1590</v>
+        <v>1556</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>259</v>
@@ -29161,7 +27899,7 @@
         <v>1399</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>1273</v>
@@ -29171,7 +27909,7 @@
         <v>1320</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="S10" s="31"/>
       <c r="V10" s="63"/>
@@ -29277,7 +28015,7 @@
         <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
@@ -29534,7 +28272,7 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>1401</v>
@@ -30235,7 +28973,7 @@
         <v>1391</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -30328,13 +29066,13 @@
         <v>1418</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="Q46" s="24" t="s">
         <v>1420</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -30673,13 +29411,13 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>1444</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>1446</v>
@@ -30806,7 +29544,7 @@
         <v>1425</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -39228,410 +37966,410 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="253" priority="5">
+    <cfRule type="expression" dxfId="251" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="6">
+    <cfRule type="expression" dxfId="250" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="251" priority="3">
+    <cfRule type="expression" dxfId="249" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="4">
+    <cfRule type="expression" dxfId="248" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="249" priority="1">
+    <cfRule type="expression" dxfId="247" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="2">
+    <cfRule type="expression" dxfId="246" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="247" priority="59">
+    <cfRule type="expression" dxfId="245" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="60">
+    <cfRule type="expression" dxfId="244" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="245" priority="57">
+    <cfRule type="expression" dxfId="243" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="58">
+    <cfRule type="expression" dxfId="242" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="243" priority="56">
+    <cfRule type="expression" dxfId="241" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="55">
+    <cfRule type="expression" dxfId="240" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="241" priority="54">
+    <cfRule type="expression" dxfId="239" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="53">
+    <cfRule type="expression" dxfId="238" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="239" priority="51">
+    <cfRule type="expression" dxfId="237" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="52">
+    <cfRule type="expression" dxfId="236" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="237" priority="49">
+    <cfRule type="expression" dxfId="235" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="50">
+    <cfRule type="expression" dxfId="234" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="235" priority="47">
+    <cfRule type="expression" dxfId="233" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="48">
+    <cfRule type="expression" dxfId="232" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="233" priority="45">
+    <cfRule type="expression" dxfId="231" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="46">
+    <cfRule type="expression" dxfId="230" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="231" priority="43">
+    <cfRule type="expression" dxfId="229" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="44">
+    <cfRule type="expression" dxfId="228" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="229" priority="41">
+    <cfRule type="expression" dxfId="227" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="42">
+    <cfRule type="expression" dxfId="226" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="227" priority="40">
+    <cfRule type="expression" dxfId="225" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="39">
+    <cfRule type="expression" dxfId="224" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="225" priority="37">
+    <cfRule type="expression" dxfId="223" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="38">
+    <cfRule type="expression" dxfId="222" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="223" priority="35">
+    <cfRule type="expression" dxfId="221" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="36">
+    <cfRule type="expression" dxfId="220" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="221" priority="33">
+    <cfRule type="expression" dxfId="219" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="34">
+    <cfRule type="expression" dxfId="218" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="219" priority="31">
+    <cfRule type="expression" dxfId="217" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="32">
+    <cfRule type="expression" dxfId="216" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="217" priority="29">
+    <cfRule type="expression" dxfId="215" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="30">
+    <cfRule type="expression" dxfId="214" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="215" priority="27">
+    <cfRule type="expression" dxfId="213" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="28">
+    <cfRule type="expression" dxfId="212" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="213" priority="26">
+    <cfRule type="expression" dxfId="211" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="25">
+    <cfRule type="expression" dxfId="210" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="211" priority="24">
+    <cfRule type="expression" dxfId="209" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="23">
+    <cfRule type="expression" dxfId="208" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="209" priority="21">
+    <cfRule type="expression" dxfId="207" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="22">
+    <cfRule type="expression" dxfId="206" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="207" priority="20">
+    <cfRule type="expression" dxfId="205" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="19">
+    <cfRule type="expression" dxfId="204" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="205" priority="17">
+    <cfRule type="expression" dxfId="203" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="18">
+    <cfRule type="expression" dxfId="202" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="203" priority="15">
+    <cfRule type="expression" dxfId="201" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="16">
+    <cfRule type="expression" dxfId="200" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="201" priority="14">
+    <cfRule type="expression" dxfId="199" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="13">
+    <cfRule type="expression" dxfId="198" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="199" priority="11">
+    <cfRule type="expression" dxfId="197" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="12">
+    <cfRule type="expression" dxfId="196" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="197" priority="9">
+    <cfRule type="expression" dxfId="195" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="10">
+    <cfRule type="expression" dxfId="194" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="195" priority="8">
+    <cfRule type="expression" dxfId="193" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="7">
+    <cfRule type="expression" dxfId="192" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="193" priority="108">
+    <cfRule type="expression" dxfId="191" priority="108">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="107">
+    <cfRule type="expression" dxfId="190" priority="107">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="191" priority="105">
+    <cfRule type="expression" dxfId="189" priority="105">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="106">
+    <cfRule type="expression" dxfId="188" priority="106">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="189" priority="104">
+    <cfRule type="expression" dxfId="187" priority="104">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="103">
+    <cfRule type="expression" dxfId="186" priority="103">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="187" priority="102">
+    <cfRule type="expression" dxfId="185" priority="102">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="101">
+    <cfRule type="expression" dxfId="184" priority="101">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="185" priority="98">
+    <cfRule type="expression" dxfId="183" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="97">
+    <cfRule type="expression" dxfId="182" priority="97">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="183" priority="96">
+    <cfRule type="expression" dxfId="181" priority="96">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="95">
+    <cfRule type="expression" dxfId="180" priority="95">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="181" priority="94">
+    <cfRule type="expression" dxfId="179" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="93">
+    <cfRule type="expression" dxfId="178" priority="93">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="179" priority="92">
+    <cfRule type="expression" dxfId="177" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="91">
+    <cfRule type="expression" dxfId="176" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="177" priority="89">
+    <cfRule type="expression" dxfId="175" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="90">
+    <cfRule type="expression" dxfId="174" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="175" priority="87">
+    <cfRule type="expression" dxfId="173" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="88">
+    <cfRule type="expression" dxfId="172" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="173" priority="85">
+    <cfRule type="expression" dxfId="171" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="86">
+    <cfRule type="expression" dxfId="170" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="171" priority="83">
+    <cfRule type="expression" dxfId="169" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="84">
+    <cfRule type="expression" dxfId="168" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="169" priority="81">
+    <cfRule type="expression" dxfId="167" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="82">
+    <cfRule type="expression" dxfId="166" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="167" priority="79">
+    <cfRule type="expression" dxfId="165" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="80">
+    <cfRule type="expression" dxfId="164" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="165" priority="78">
+    <cfRule type="expression" dxfId="163" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="77">
+    <cfRule type="expression" dxfId="162" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="163" priority="76">
+    <cfRule type="expression" dxfId="161" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="75">
+    <cfRule type="expression" dxfId="160" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="161" priority="74">
+    <cfRule type="expression" dxfId="159" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="73">
+    <cfRule type="expression" dxfId="158" priority="73">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="159" priority="72">
+    <cfRule type="expression" dxfId="157" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="71">
+    <cfRule type="expression" dxfId="156" priority="71">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="157" priority="70">
+    <cfRule type="expression" dxfId="155" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="69">
+    <cfRule type="expression" dxfId="154" priority="69">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="155" priority="68">
+    <cfRule type="expression" dxfId="153" priority="68">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="67">
+    <cfRule type="expression" dxfId="152" priority="67">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="153" priority="66">
+    <cfRule type="expression" dxfId="151" priority="66">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="65">
+    <cfRule type="expression" dxfId="150" priority="65">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50149,410 +48887,410 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="151" priority="94">
+    <cfRule type="expression" dxfId="149" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="93">
+    <cfRule type="expression" dxfId="148" priority="93">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="149" priority="58">
+    <cfRule type="expression" dxfId="147" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="57">
+    <cfRule type="expression" dxfId="146" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="147" priority="55">
+    <cfRule type="expression" dxfId="145" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="56">
+    <cfRule type="expression" dxfId="144" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="145" priority="54">
+    <cfRule type="expression" dxfId="143" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="53">
+    <cfRule type="expression" dxfId="142" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="143" priority="51">
+    <cfRule type="expression" dxfId="141" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="52">
+    <cfRule type="expression" dxfId="140" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="141" priority="49">
+    <cfRule type="expression" dxfId="139" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="50">
+    <cfRule type="expression" dxfId="138" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="139" priority="47">
+    <cfRule type="expression" dxfId="137" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="48">
+    <cfRule type="expression" dxfId="136" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="137" priority="46">
+    <cfRule type="expression" dxfId="135" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="45">
+    <cfRule type="expression" dxfId="134" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="135" priority="44">
+    <cfRule type="expression" dxfId="133" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="43">
+    <cfRule type="expression" dxfId="132" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="133" priority="42">
+    <cfRule type="expression" dxfId="131" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="41">
+    <cfRule type="expression" dxfId="130" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="131" priority="40">
+    <cfRule type="expression" dxfId="129" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="39">
+    <cfRule type="expression" dxfId="128" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="129" priority="37">
+    <cfRule type="expression" dxfId="127" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="38">
+    <cfRule type="expression" dxfId="126" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="127" priority="35">
+    <cfRule type="expression" dxfId="125" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="36">
+    <cfRule type="expression" dxfId="124" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="125" priority="33">
+    <cfRule type="expression" dxfId="123" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="34">
+    <cfRule type="expression" dxfId="122" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="123" priority="31">
+    <cfRule type="expression" dxfId="121" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="32">
+    <cfRule type="expression" dxfId="120" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="121" priority="30">
+    <cfRule type="expression" dxfId="119" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="29">
+    <cfRule type="expression" dxfId="118" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="119" priority="27">
+    <cfRule type="expression" dxfId="117" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="28">
+    <cfRule type="expression" dxfId="116" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="117" priority="25">
+    <cfRule type="expression" dxfId="115" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="26">
+    <cfRule type="expression" dxfId="114" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="115" priority="24">
+    <cfRule type="expression" dxfId="113" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="23">
+    <cfRule type="expression" dxfId="112" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="113" priority="22">
+    <cfRule type="expression" dxfId="111" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="21">
+    <cfRule type="expression" dxfId="110" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="111" priority="19">
+    <cfRule type="expression" dxfId="109" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="20">
+    <cfRule type="expression" dxfId="108" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="109" priority="17">
+    <cfRule type="expression" dxfId="107" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="18">
+    <cfRule type="expression" dxfId="106" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="107" priority="15">
+    <cfRule type="expression" dxfId="105" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="16">
+    <cfRule type="expression" dxfId="104" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="105" priority="14">
+    <cfRule type="expression" dxfId="103" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="13">
+    <cfRule type="expression" dxfId="102" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="103" priority="11">
+    <cfRule type="expression" dxfId="101" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="12">
+    <cfRule type="expression" dxfId="100" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="101" priority="10">
+    <cfRule type="expression" dxfId="99" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="9">
+    <cfRule type="expression" dxfId="98" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="99" priority="8">
+    <cfRule type="expression" dxfId="97" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="7">
+    <cfRule type="expression" dxfId="96" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="97" priority="5">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="6">
+    <cfRule type="expression" dxfId="94" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="95" priority="3">
+    <cfRule type="expression" dxfId="93" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="4">
+    <cfRule type="expression" dxfId="92" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="91" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="91" priority="102">
+    <cfRule type="expression" dxfId="89" priority="102">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="101">
+    <cfRule type="expression" dxfId="88" priority="101">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="89" priority="100">
+    <cfRule type="expression" dxfId="87" priority="100">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="99">
+    <cfRule type="expression" dxfId="86" priority="99">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="87" priority="98">
+    <cfRule type="expression" dxfId="85" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="97">
+    <cfRule type="expression" dxfId="84" priority="97">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="85" priority="96">
+    <cfRule type="expression" dxfId="83" priority="96">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="95">
+    <cfRule type="expression" dxfId="82" priority="95">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="83" priority="92">
+    <cfRule type="expression" dxfId="81" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="91">
+    <cfRule type="expression" dxfId="80" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="81" priority="89">
+    <cfRule type="expression" dxfId="79" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="90">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="79" priority="87">
+    <cfRule type="expression" dxfId="77" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="88">
+    <cfRule type="expression" dxfId="76" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="77" priority="85">
+    <cfRule type="expression" dxfId="75" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="86">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="75" priority="83">
+    <cfRule type="expression" dxfId="73" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84">
+    <cfRule type="expression" dxfId="72" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="73" priority="81">
+    <cfRule type="expression" dxfId="71" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="82">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="71" priority="79">
+    <cfRule type="expression" dxfId="69" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="80">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="69" priority="77">
+    <cfRule type="expression" dxfId="67" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="78">
+    <cfRule type="expression" dxfId="66" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="67" priority="75">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
+    <cfRule type="expression" dxfId="64" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="65" priority="74">
+    <cfRule type="expression" dxfId="63" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="73">
+    <cfRule type="expression" dxfId="62" priority="73">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="63" priority="72">
+    <cfRule type="expression" dxfId="61" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="71">
+    <cfRule type="expression" dxfId="60" priority="71">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="61" priority="70">
+    <cfRule type="expression" dxfId="59" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="69">
+    <cfRule type="expression" dxfId="58" priority="69">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="59" priority="68">
+    <cfRule type="expression" dxfId="57" priority="68">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="57" priority="66">
+    <cfRule type="expression" dxfId="55" priority="66">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="65">
+    <cfRule type="expression" dxfId="54" priority="65">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="55" priority="63">
+    <cfRule type="expression" dxfId="53" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="64">
+    <cfRule type="expression" dxfId="52" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="53" priority="61">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="62">
+    <cfRule type="expression" dxfId="50" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="51" priority="59">
+    <cfRule type="expression" dxfId="49" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="60">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58771,194 +57509,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="43" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="41" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="39" priority="48">
+    <cfRule type="expression" dxfId="37" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="47">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="7" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="46">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="5" priority="43">
+    <cfRule type="expression" dxfId="3" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="44">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="0" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC02EBFE-19B7-4497-8F61-6092D06DF8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD26D85-19FC-4E7C-B5C2-D4C8A628200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="人工標音字庫" sheetId="330" r:id="rId2"/>
-    <sheet name="標音字庫" sheetId="329" r:id="rId3"/>
-    <sheet name="缺字表" sheetId="328" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="336" r:id="rId2"/>
+    <sheet name="標音字庫" sheetId="335" r:id="rId3"/>
+    <sheet name="缺字表" sheetId="334" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (白話音)" sheetId="279" r:id="rId6"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId7"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="1619">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5545,9 +5545,6 @@
     <t>Tánn</t>
   </si>
   <si>
-    <t>(57, 18)</t>
-  </si>
-  <si>
     <t>(5, 14); (5, 16)</t>
   </si>
   <si>
@@ -5558,6 +5555,9 @@
   </si>
   <si>
     <t>(21, 18)</t>
+  </si>
+  <si>
+    <t>(57, 18); (33, 18)</t>
   </si>
 </sst>
 </file>
@@ -5996,7 +5996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6198,13 +6198,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15235,7 +15232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66716CFE-44BF-4E4D-9CD1-A5C008FE7600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81B78BD-7336-4F07-A325-77FF06BA174E}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15365,7 +15362,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -15435,7 +15432,7 @@
         <v>1596</v>
       </c>
       <c r="D14" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -15463,7 +15460,7 @@
         <v>1179</v>
       </c>
       <c r="D16" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15477,7 +15474,7 @@
         <v>1595</v>
       </c>
       <c r="D17" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15585,10 +15582,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7206F1-181A-4945-A97D-CB8FCAC48960}">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423522E3-30B8-413C-AE61-FCF0512DB4FC}">
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -16510,10 +16507,318 @@
         <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
         <v>1614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D68" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>386</v>
+      </c>
+      <c r="C69" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" t="s">
+        <v>395</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>346</v>
+      </c>
+      <c r="C72" t="s">
+        <v>346</v>
+      </c>
+      <c r="D72" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D73" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D74" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" t="s">
+        <v>359</v>
+      </c>
+      <c r="D77" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" t="s">
+        <v>353</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D83" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D84" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D85" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>380</v>
+      </c>
+      <c r="C86" t="s">
+        <v>380</v>
+      </c>
+      <c r="D86" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
@@ -16523,7 +16828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF32A12-AAF2-48E0-97F9-88A8DE2E9F80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563B4475-C4FE-4C87-8240-D1D3FF54E0A4}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16769,13 +17074,13 @@
       <c r="E5" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="46" t="s">
         <v>1205</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="67" t="s">
@@ -16784,7 +17089,7 @@
       <c r="J5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="46" t="s">
         <v>1253</v>
       </c>
       <c r="L5" s="67" t="s">
@@ -16796,7 +17101,7 @@
       <c r="N5" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="67" t="s">
@@ -16943,7 +17248,7 @@
       <c r="D9" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="46" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="67" t="s">
@@ -16952,34 +17257,34 @@
       <c r="G9" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="46" t="s">
         <v>259</v>
       </c>
       <c r="I9" s="67" t="s">
         <v>1241</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="46" t="s">
         <v>1242</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="46" t="s">
         <v>1156</v>
       </c>
       <c r="M9" s="67" t="s">
         <v>1198</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="67" t="s">
+      <c r="O9" s="46" t="s">
         <v>1202</v>
       </c>
-      <c r="P9" s="67" t="s">
+      <c r="P9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="67" t="s">
+      <c r="Q9" s="46" t="s">
         <v>1209</v>
       </c>
       <c r="R9" s="67" t="s">
@@ -17092,29 +17397,31 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="46" t="s">
         <v>1158</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="46" t="s">
         <v>1233</v>
       </c>
       <c r="H13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="67" t="s">
-        <v>1478</v>
+      <c r="K13" s="46" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -17201,7 +17508,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="67" t="str">
+      <c r="D17" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17320,46 +17627,46 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="46" t="s">
         <v>1245</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="46" t="s">
         <v>1203</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="46" t="s">
         <v>1360</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="46" t="s">
         <v>1186</v>
       </c>
       <c r="H21" s="67" t="s">
         <v>1175</v>
       </c>
-      <c r="I21" s="67" t="s">
+      <c r="I21" s="46" t="s">
         <v>1196</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="46" t="s">
         <v>1200</v>
       </c>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="46" t="s">
         <v>252</v>
       </c>
       <c r="M21" s="68" t="s">
         <v>1221</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="46" t="s">
         <v>1218</v>
       </c>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="67" t="s">
+      <c r="P21" s="46" t="s">
         <v>1364</v>
       </c>
-      <c r="Q21" s="67" t="s">
+      <c r="Q21" s="46" t="s">
         <v>1239</v>
       </c>
       <c r="R21" s="67" t="s">
@@ -17461,10 +17768,10 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="67" t="str">
+      <c r="E25" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17558,7 +17865,7 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="67" t="str">
+      <c r="D29" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17689,46 +17996,46 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="46" t="s">
         <v>1215</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="46" t="s">
         <v>1223</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="46" t="s">
         <v>1180</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="46" t="s">
         <v>1197</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="46" t="s">
         <v>1255</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="46" t="s">
         <v>1193</v>
       </c>
-      <c r="K33" s="67" t="s">
+      <c r="K33" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="67" t="s">
+      <c r="L33" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="46" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="67" t="s">
+      <c r="N33" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="67" t="s">
+      <c r="O33" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="67" t="s">
+      <c r="P33" s="46" t="s">
         <v>1254</v>
       </c>
-      <c r="Q33" s="67" t="s">
+      <c r="Q33" s="46" t="s">
         <v>237</v>
       </c>
       <c r="R33" s="67" t="s">
@@ -17834,19 +18141,19 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="46" t="s">
         <v>1212</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="46" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="46" t="s">
         <v>1159</v>
       </c>
-      <c r="G37" s="67" t="s">
+      <c r="G37" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="67" t="str">
+      <c r="H37" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17941,7 +18248,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="67" t="str">
+      <c r="D41" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18054,49 +18361,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="46" t="s">
         <v>1191</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="E45" s="46" t="s">
         <v>1190</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="67" t="s">
+      <c r="G45" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="67" t="s">
+      <c r="H45" s="46" t="s">
         <v>1220</v>
       </c>
-      <c r="I45" s="67" t="s">
+      <c r="I45" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="67" t="s">
+      <c r="J45" s="46" t="s">
         <v>1257</v>
       </c>
-      <c r="K45" s="67" t="s">
+      <c r="K45" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="67" t="s">
+      <c r="L45" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="M45" s="67" t="s">
+      <c r="M45" s="46" t="s">
         <v>1217</v>
       </c>
-      <c r="N45" s="67" t="s">
+      <c r="N45" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="67" t="s">
+      <c r="O45" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="P45" s="67" t="s">
+      <c r="P45" s="46" t="s">
         <v>1199</v>
       </c>
-      <c r="Q45" s="67" t="s">
+      <c r="Q45" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="R45" s="67" t="s">
+      <c r="R45" s="46" t="s">
         <v>1195</v>
       </c>
       <c r="S45" s="21"/>
@@ -18199,19 +18506,19 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="46" t="s">
         <v>1231</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="46" t="s">
         <v>1189</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="46" t="s">
         <v>1187</v>
       </c>
-      <c r="G49" s="67" t="s">
+      <c r="G49" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="67" t="str">
+      <c r="H49" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18300,7 +18607,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="67" t="str">
+      <c r="D53" s="46" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18415,49 +18722,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="46" t="s">
         <v>1214</v>
       </c>
-      <c r="E57" s="67" t="s">
+      <c r="E57" s="46" t="s">
         <v>1238</v>
       </c>
-      <c r="F57" s="67" t="s">
+      <c r="F57" s="46" t="s">
         <v>1157</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="61" t="s">
         <v>1182</v>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="67" t="s">
+      <c r="I57" s="46" t="s">
         <v>1250</v>
       </c>
-      <c r="J57" s="67" t="s">
+      <c r="J57" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="K57" s="67" t="s">
+      <c r="K57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L57" s="67" t="s">
+      <c r="L57" s="46" t="s">
         <v>299</v>
       </c>
       <c r="M57" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="N57" s="67" t="s">
+      <c r="N57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="67" t="s">
+      <c r="O57" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="67" t="s">
+      <c r="P57" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" s="67" t="s">
+      <c r="Q57" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="67" t="s">
+      <c r="R57" s="46" t="s">
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
@@ -18562,19 +18869,19 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="D61" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="67" t="s">
+      <c r="E61" s="46" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="67" t="s">
+      <c r="H61" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="41"/>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD26D85-19FC-4E7C-B5C2-D4C8A628200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C3223A-D2B5-44FF-902A-4CBBDBCFE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="人工標音字庫" sheetId="336" r:id="rId2"/>
-    <sheet name="標音字庫" sheetId="335" r:id="rId3"/>
-    <sheet name="缺字表" sheetId="334" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="340" r:id="rId2"/>
+    <sheet name="標音字庫" sheetId="342" r:id="rId3"/>
+    <sheet name="缺字表" sheetId="341" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (白話音)" sheetId="279" r:id="rId6"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId7"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="1632">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5483,18 +5483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ú</t>
   </si>
   <si>
@@ -5502,14 +5490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>du3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5557,7 +5537,74 @@
     <t>(21, 18)</t>
   </si>
   <si>
-    <t>(57, 18); (33, 18)</t>
+    <t>sam1</t>
+  </si>
+  <si>
+    <t>sam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guat8</t>
+  </si>
+  <si>
+    <t>guat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gguat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long5</t>
+  </si>
+  <si>
+    <t>long5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zenn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zne2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phah4</t>
+  </si>
+  <si>
+    <t>phah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 14); (5, 16); (33, 18); (57, 18)</t>
+  </si>
+  <si>
+    <t>(9, 4); (57, 13)</t>
   </si>
 </sst>
 </file>
@@ -5996,7 +6043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6198,10 +6245,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15232,7 +15282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81B78BD-7336-4F07-A325-77FF06BA174E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858F48F0-61F9-4868-819B-ACF1C6A54597}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15362,7 +15412,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -15373,7 +15423,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D10" t="s">
         <v>984</v>
@@ -15432,7 +15482,7 @@
         <v>1596</v>
       </c>
       <c r="D14" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -15460,7 +15510,7 @@
         <v>1179</v>
       </c>
       <c r="D16" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15474,7 +15524,7 @@
         <v>1595</v>
       </c>
       <c r="D17" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15569,7 +15619,7 @@
         <v>1176</v>
       </c>
       <c r="C24" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="D24" t="s">
         <v>1267</v>
@@ -15582,10 +15632,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423522E3-30B8-413C-AE61-FCF0512DB4FC}">
-  <dimension ref="A1:D88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4114F905-3AAC-4784-B1C6-3E67B1C97B13}">
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -15605,1220 +15655,1164 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1205</v>
+        <v>1161</v>
       </c>
       <c r="B2" t="s">
-        <v>1285</v>
+        <v>1613</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1253</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>1243</v>
+        <v>1615</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>1205</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>1285</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1242</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>1227</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1156</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>1164</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1202</v>
+        <v>1253</v>
       </c>
       <c r="B8" t="s">
-        <v>1181</v>
+        <v>1243</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1209</v>
+        <v>1163</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1293</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1158</v>
+        <v>1252</v>
       </c>
       <c r="B10" t="s">
-        <v>1167</v>
+        <v>1247</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1233</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>1169</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1263</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1295</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1245</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1172</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1203</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>1539</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1264</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="B15" t="s">
-        <v>1540</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1265</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1266</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1196</v>
+        <v>259</v>
       </c>
       <c r="B17" t="s">
-        <v>1541</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1296</v>
+        <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1200</v>
+        <v>1241</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>1621</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1268</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>1242</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>1227</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1269</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1221</v>
+        <v>1156</v>
       </c>
       <c r="B20" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1270</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1218</v>
+        <v>1198</v>
       </c>
       <c r="B21" t="s">
-        <v>1219</v>
+        <v>1536</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>1271</v>
+        <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1297</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1160</v>
+        <v>1202</v>
       </c>
       <c r="B23" t="s">
-        <v>1419</v>
+        <v>1181</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1298</v>
+        <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1239</v>
+        <v>1209</v>
       </c>
       <c r="B24" t="s">
-        <v>1365</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1215</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>1542</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1300</v>
+        <v>941</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1223</v>
+        <v>1158</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>1167</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1301</v>
+        <v>942</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1180</v>
+        <v>1248</v>
       </c>
       <c r="B27" t="s">
-        <v>1207</v>
+        <v>1378</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1302</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1197</v>
+        <v>1233</v>
       </c>
       <c r="B28" t="s">
-        <v>1543</v>
+        <v>1169</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>977</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1255</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1193</v>
+        <v>1245</v>
       </c>
       <c r="B31" t="s">
-        <v>1544</v>
+        <v>420</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1305</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>1203</v>
       </c>
       <c r="B32" t="s">
-        <v>1232</v>
+        <v>1539</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1306</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1185</v>
+        <v>1237</v>
       </c>
       <c r="B33" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1307</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>1186</v>
       </c>
       <c r="B34" t="s">
-        <v>345</v>
+        <v>461</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1308</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1254</v>
+        <v>1175</v>
       </c>
       <c r="B35" t="s">
-        <v>1170</v>
+        <v>1627</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>982</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>1196</v>
       </c>
       <c r="B36" t="s">
-        <v>443</v>
+        <v>1541</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="B37" t="s">
-        <v>1573</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>985</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1162</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s">
-        <v>1546</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1310</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1159</v>
+        <v>1221</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>1165</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>986</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1191</v>
+        <v>1218</v>
       </c>
       <c r="B40" t="s">
-        <v>1192</v>
+        <v>1219</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1331</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1190</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>1261</v>
+        <v>407</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1002</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>1160</v>
       </c>
       <c r="B42" t="s">
-        <v>303</v>
+        <v>1419</v>
       </c>
       <c r="C42" t="s">
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>1332</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>1239</v>
       </c>
       <c r="B43" t="s">
-        <v>389</v>
+        <v>1365</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1333</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>1542</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>1004</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>1223</v>
       </c>
       <c r="B45" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>1334</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1257</v>
+        <v>1180</v>
       </c>
       <c r="B46" t="s">
-        <v>1236</v>
+        <v>1207</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>1197</v>
       </c>
       <c r="B47" t="s">
-        <v>481</v>
+        <v>1543</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>1007</v>
+        <v>977</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1217</v>
+        <v>1255</v>
       </c>
       <c r="B48" t="s">
-        <v>1216</v>
+        <v>401</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>1008</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>1009</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B50" t="s">
-        <v>1258</v>
+        <v>1544</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1010</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>1244</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s">
-        <v>1547</v>
+        <v>1232</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1011</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="B52" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>1335</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>1231</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>1230</v>
+        <v>345</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>1336</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1189</v>
+        <v>1254</v>
       </c>
       <c r="B54" t="s">
-        <v>1583</v>
+        <v>1170</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>1012</v>
+        <v>982</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>1187</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>1551</v>
+        <v>443</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>1013</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B56" t="s">
-        <v>1451</v>
+        <v>1573</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>1591</v>
+        <v>985</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1238</v>
+        <v>1162</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
+        <v>1546</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>1337</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B58" t="s">
-        <v>1166</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>1338</v>
+        <v>986</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1182</v>
+        <v>1191</v>
       </c>
       <c r="B59" t="s">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>1190</v>
       </c>
       <c r="B60" t="s">
-        <v>372</v>
+        <v>1261</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>1340</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>1250</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>1168</v>
+        <v>303</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>299</v>
+        <v>1220</v>
       </c>
       <c r="B63" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>1343</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>1592</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>1257</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>1236</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>1593</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>481</v>
       </c>
       <c r="C66" t="s">
-        <v>334</v>
+        <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>1618</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>1217</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>1216</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>1614</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>1161</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>1173</v>
+        <v>348</v>
       </c>
       <c r="C68" t="s">
-        <v>1173</v>
+        <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>918</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>1199</v>
       </c>
       <c r="B69" t="s">
-        <v>386</v>
+        <v>1258</v>
       </c>
       <c r="C69" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>919</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>1244</v>
       </c>
       <c r="B70" t="s">
-        <v>395</v>
+        <v>1547</v>
       </c>
       <c r="C70" t="s">
-        <v>395</v>
+        <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>1286</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>1195</v>
       </c>
       <c r="B71" t="s">
-        <v>1225</v>
+        <v>1548</v>
       </c>
       <c r="C71" t="s">
-        <v>1225</v>
+        <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>1287</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>1231</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>1230</v>
       </c>
       <c r="C72" t="s">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>923</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>1163</v>
+        <v>1189</v>
       </c>
       <c r="B73" t="s">
-        <v>1171</v>
+        <v>1583</v>
       </c>
       <c r="C73" t="s">
-        <v>1171</v>
+        <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>925</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>1252</v>
+        <v>1187</v>
       </c>
       <c r="B74" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C74" t="s">
-        <v>1552</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>926</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>1214</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>1451</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>930</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>1238</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1288</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>1157</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>1166</v>
       </c>
       <c r="C77" t="s">
-        <v>359</v>
+        <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>931</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>1182</v>
       </c>
       <c r="B78" t="s">
-        <v>1596</v>
+        <v>1183</v>
       </c>
       <c r="C78" t="s">
-        <v>1596</v>
+        <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1615</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>1177</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>1178</v>
+        <v>372</v>
       </c>
       <c r="C79" t="s">
-        <v>1178</v>
+        <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1289</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>1250</v>
       </c>
       <c r="B80" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="C80" t="s">
-        <v>1179</v>
+        <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1616</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>1617</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>1241</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
-        <v>1226</v>
+        <v>483</v>
       </c>
       <c r="C82" t="s">
-        <v>1226</v>
+        <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>1290</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>1198</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>1536</v>
+        <v>364</v>
       </c>
       <c r="C83" t="s">
-        <v>1536</v>
+        <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>937</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>1228</v>
+        <v>354</v>
       </c>
       <c r="C84" t="s">
-        <v>1228</v>
+        <v>499</v>
       </c>
       <c r="D84" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D85" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B86" t="s">
-        <v>380</v>
-      </c>
-      <c r="C86" t="s">
-        <v>380</v>
-      </c>
-      <c r="D86" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1267</v>
+        <v>1593</v>
       </c>
     </row>
   </sheetData>
@@ -16828,7 +16822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563B4475-C4FE-4C87-8240-D1D3FF54E0A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86893216-B48E-45BD-BD70-F608460F473D}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17021,10 +17015,10 @@
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1353</v>
+        <v>1614</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>702</v>
+        <v>1616</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>1312</v>
@@ -17034,7 +17028,7 @@
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>1354</v>
+        <v>804</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>619</v>
@@ -17043,23 +17037,23 @@
         <v>1314</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1457</v>
+        <v>555</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1553</v>
+        <v>1316</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>840</v>
+        <v>591</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>840</v>
+        <v>591</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="R4" s="60" t="s">
-        <v>722</v>
+        <v>910</v>
       </c>
       <c r="S4" s="19"/>
       <c r="V4" s="63"/>
@@ -17074,13 +17068,13 @@
       <c r="E5" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="67" t="s">
         <v>1205</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="67" t="s">
@@ -17089,7 +17083,7 @@
       <c r="J5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="67" t="s">
         <v>1253</v>
       </c>
       <c r="L5" s="67" t="s">
@@ -17101,7 +17095,7 @@
       <c r="N5" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="67" t="s">
@@ -17120,20 +17114,20 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1395</v>
+        <v>1614</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1393</v>
+        <v>1617</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>1354</v>
+        <v>804</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>1528</v>
@@ -17142,23 +17136,23 @@
         <v>1315</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1529</v>
+        <v>1559</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1603</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1396</v>
+        <v>1601</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1396</v>
+        <v>1601</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1604</v>
+        <v>1429</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>722</v>
+        <v>910</v>
       </c>
       <c r="S6" s="25"/>
       <c r="V6" s="63"/>
@@ -17199,20 +17193,20 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="60" t="s">
-        <v>645</v>
+        <v>758</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>1355</v>
+        <v>888</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>1311</v>
+        <v>732</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1356</v>
+        <v>1622</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>1430</v>
@@ -17235,7 +17229,7 @@
         <v>597</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>1558</v>
+        <v>778</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -17248,7 +17242,7 @@
       <c r="D9" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="67" t="s">
@@ -17257,34 +17251,34 @@
       <c r="G9" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="67" t="s">
         <v>259</v>
       </c>
       <c r="I9" s="67" t="s">
         <v>1241</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="67" t="s">
         <v>1242</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="67" t="s">
         <v>1156</v>
       </c>
       <c r="M9" s="67" t="s">
         <v>1198</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="67" t="s">
         <v>1202</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="67" t="s">
         <v>1209</v>
       </c>
       <c r="R9" s="67" t="s">
@@ -17297,30 +17291,30 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="24" t="s">
-        <v>567</v>
+        <v>1618</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>1397</v>
+        <v>1619</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1318</v>
+        <v>1620</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>1319</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1398</v>
+        <v>1623</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>1431</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>1537</v>
@@ -17330,10 +17324,10 @@
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>730</v>
+        <v>1538</v>
       </c>
       <c r="S10" s="31"/>
       <c r="V10" s="63"/>
@@ -17368,14 +17362,14 @@
         <v>1321</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1456</v>
+        <v>1624</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
         <v>1323</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1380</v>
+        <v>593</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>651</v>
@@ -17397,28 +17391,28 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="67" t="s">
         <v>1158</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="67" t="s">
         <v>1233</v>
       </c>
       <c r="H13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="46" t="str">
+      <c r="K13" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17439,14 +17433,14 @@
         <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1530</v>
+        <v>1625</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
         <v>1324</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1400</v>
+        <v>1626</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>1274</v>
@@ -17508,7 +17502,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="46" t="str">
+      <c r="D17" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17558,7 +17552,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -17589,7 +17583,7 @@
         <v>864</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>1382</v>
+        <v>1628</v>
       </c>
       <c r="I20" s="60" t="s">
         <v>1563</v>
@@ -17617,7 +17611,7 @@
         <v>1366</v>
       </c>
       <c r="R20" s="60" t="s">
-        <v>633</v>
+        <v>732</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="63"/>
@@ -17627,46 +17621,46 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="67" t="s">
         <v>1245</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="67" t="s">
         <v>1203</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="67" t="s">
         <v>1360</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="67" t="s">
         <v>1186</v>
       </c>
       <c r="H21" s="67" t="s">
         <v>1175</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="67" t="s">
         <v>1196</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="67" t="s">
         <v>1200</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="67" t="s">
         <v>252</v>
       </c>
       <c r="M21" s="68" t="s">
         <v>1221</v>
       </c>
-      <c r="N21" s="46" t="s">
+      <c r="N21" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="O21" s="46" t="s">
+      <c r="O21" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="67" t="s">
         <v>1364</v>
       </c>
-      <c r="Q21" s="46" t="s">
+      <c r="Q21" s="67" t="s">
         <v>1239</v>
       </c>
       <c r="R21" s="67" t="s">
@@ -17690,10 +17684,10 @@
         <v>1414</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1394</v>
+        <v>1629</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>722</v>
@@ -17718,7 +17712,7 @@
         <v>1407</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1598</v>
+        <v>1620</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -17768,10 +17762,10 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="46" t="str">
+      <c r="E25" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17865,7 +17859,7 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="46" t="str">
+      <c r="D29" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17933,7 +17927,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
       <c r="R31" s="56" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
@@ -17996,46 +17990,46 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="67" t="s">
         <v>1215</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="67" t="s">
         <v>1223</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="67" t="s">
         <v>1180</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="67" t="s">
         <v>1197</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="67" t="s">
         <v>1255</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="J33" s="67" t="s">
         <v>1193</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="67" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="46" t="s">
+      <c r="N33" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="46" t="s">
+      <c r="O33" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="46" t="s">
+      <c r="P33" s="67" t="s">
         <v>1254</v>
       </c>
-      <c r="Q33" s="46" t="s">
+      <c r="Q33" s="67" t="s">
         <v>237</v>
       </c>
       <c r="R33" s="67" t="s">
@@ -18076,16 +18070,16 @@
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1329</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -18141,19 +18135,19 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="67" t="s">
         <v>1212</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="67" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="67" t="s">
         <v>1159</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="46" t="str">
+      <c r="H37" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18248,7 +18242,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="46" t="str">
+      <c r="D41" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18361,49 +18355,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="67" t="s">
         <v>1191</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="67" t="s">
         <v>1190</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="46" t="s">
+      <c r="H45" s="67" t="s">
         <v>1220</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="46" t="s">
+      <c r="J45" s="67" t="s">
         <v>1257</v>
       </c>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="46" t="s">
+      <c r="L45" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="M45" s="46" t="s">
+      <c r="M45" s="67" t="s">
         <v>1217</v>
       </c>
-      <c r="N45" s="46" t="s">
+      <c r="N45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="46" t="s">
+      <c r="O45" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="P45" s="46" t="s">
+      <c r="P45" s="67" t="s">
         <v>1199</v>
       </c>
-      <c r="Q45" s="46" t="s">
+      <c r="Q45" s="67" t="s">
         <v>1244</v>
       </c>
-      <c r="R45" s="46" t="s">
+      <c r="R45" s="67" t="s">
         <v>1195</v>
       </c>
       <c r="S45" s="21"/>
@@ -18506,19 +18500,19 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="67" t="s">
         <v>1231</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="67" t="s">
         <v>1189</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="67" t="s">
         <v>1187</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="46" t="str">
+      <c r="H49" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18607,7 +18601,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="46" t="str">
+      <c r="D53" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18699,7 +18693,7 @@
         <v>916</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>1597</v>
+        <v>758</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
@@ -18722,49 +18716,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="67" t="s">
         <v>1214</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="67" t="s">
         <v>1238</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="67" t="s">
         <v>1157</v>
       </c>
-      <c r="G57" s="61" t="s">
+      <c r="G57" s="69" t="s">
         <v>1182</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="46" t="s">
+      <c r="I57" s="67" t="s">
         <v>1250</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="K57" s="46" t="s">
+      <c r="K57" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="67" t="s">
         <v>299</v>
       </c>
       <c r="M57" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="N57" s="46" t="s">
+      <c r="N57" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="46" t="s">
+      <c r="O57" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="46" t="s">
+      <c r="P57" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" s="46" t="s">
+      <c r="Q57" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="46" t="s">
+      <c r="R57" s="67" t="s">
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
@@ -18798,11 +18792,11 @@
         <v>1447</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>1599</v>
+        <v>1618</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="P58" s="24" t="s">
         <v>1590</v>
@@ -18811,7 +18805,7 @@
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -18847,7 +18841,7 @@
         <v>635</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>691</v>
+        <v>1624</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -18869,19 +18863,19 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="G61" s="61" t="s">
+      <c r="G61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="67" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="41"/>
@@ -18900,13 +18894,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>1590</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1600</v>
+        <v>1625</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C3223A-D2B5-44FF-902A-4CBBDBCFE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A5FBEB-C431-4D52-90B6-029DC71DBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="人工標音字庫" sheetId="340" r:id="rId2"/>
-    <sheet name="標音字庫" sheetId="342" r:id="rId3"/>
-    <sheet name="缺字表" sheetId="341" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="352" r:id="rId2"/>
+    <sheet name="標音字庫" sheetId="351" r:id="rId3"/>
+    <sheet name="缺字表" sheetId="350" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (白話音)" sheetId="279" r:id="rId6"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId7"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1623">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5483,6 +5483,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ú</t>
   </si>
   <si>
@@ -5490,6 +5502,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>du3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5537,74 +5557,19 @@
     <t>(21, 18)</t>
   </si>
   <si>
+    <t>(57, 18); (33, 18)</t>
+  </si>
+  <si>
     <t>sam1</t>
   </si>
   <si>
-    <t>sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guat8</t>
   </si>
   <si>
-    <t>guat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gguat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long5</t>
   </si>
   <si>
-    <t>long5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zenn5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zne2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zok7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phah4</t>
-  </si>
-  <si>
-    <t>phah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pah7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5, 14); (5, 16); (33, 18); (57, 18)</t>
-  </si>
-  <si>
-    <t>(9, 4); (57, 13)</t>
   </si>
 </sst>
 </file>
@@ -6043,7 +6008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6252,6 +6217,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15282,7 +15250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858F48F0-61F9-4868-819B-ACF1C6A54597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4929077-2B03-4B67-917B-CCA43B6419D7}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15412,7 +15380,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -15423,7 +15391,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="D10" t="s">
         <v>984</v>
@@ -15482,7 +15450,7 @@
         <v>1596</v>
       </c>
       <c r="D14" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -15510,7 +15478,7 @@
         <v>1179</v>
       </c>
       <c r="D16" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15524,7 +15492,7 @@
         <v>1595</v>
       </c>
       <c r="D17" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15619,7 +15587,7 @@
         <v>1176</v>
       </c>
       <c r="C24" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="D24" t="s">
         <v>1267</v>
@@ -15632,8 +15600,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4114F905-3AAC-4784-B1C6-3E67B1C97B13}">
-  <dimension ref="A1:D84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0013F2-84BF-44F2-A3B8-7DEA893D7D45}">
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15658,1160 +15626,1381 @@
         <v>1161</v>
       </c>
       <c r="B2" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
       </c>
-      <c r="D2" t="s">
-        <v>918</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>1161</v>
       </c>
       <c r="B3" t="s">
-        <v>1615</v>
+        <v>1173</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1205</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>1285</v>
+        <v>1620</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
-      <c r="D4" t="s">
-        <v>920</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1286</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>1205</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>1285</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1287</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>923</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1253</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>1243</v>
+        <v>432</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
-      <c r="D8" t="s">
-        <v>924</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1163</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>1225</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>925</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1252</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>1247</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>1253</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>1243</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1630</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>1163</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
-      <c r="D12" t="s">
-        <v>930</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>1163</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>1171</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1288</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>1252</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>1247</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
-      <c r="D14" t="s">
-        <v>1631</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1177</v>
+        <v>1252</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>1552</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1289</v>
+        <v>926</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1448</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>933</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1241</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>1621</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
-      <c r="D18" t="s">
-        <v>1290</v>
-      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1242</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>1227</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1291</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1156</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>1164</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
-      <c r="D20" t="s">
-        <v>1292</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1198</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>1536</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>937</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
-      <c r="D22" t="s">
-        <v>938</v>
-      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1202</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>1181</v>
+        <v>359</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1209</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>1596</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1293</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>1177</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
-      <c r="D25" t="s">
-        <v>941</v>
-      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1158</v>
+        <v>1177</v>
       </c>
       <c r="B26" t="s">
-        <v>1167</v>
+        <v>1178</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>942</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1248</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>1378</v>
+        <v>400</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
-      <c r="D27" t="s">
-        <v>1330</v>
-      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1233</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1263</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1294</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1295</v>
+        <v>933</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B31" t="s">
-        <v>420</v>
+        <v>1621</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
-      <c r="D31" t="s">
-        <v>1172</v>
-      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1203</v>
+        <v>1241</v>
       </c>
       <c r="B32" t="s">
-        <v>1539</v>
+        <v>1226</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1264</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="B33" t="s">
-        <v>1540</v>
+        <v>1227</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1186</v>
+        <v>1156</v>
       </c>
       <c r="B34" t="s">
-        <v>461</v>
+        <v>1164</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1266</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1175</v>
+        <v>1198</v>
       </c>
       <c r="B35" t="s">
-        <v>1627</v>
+        <v>1536</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1267</v>
+        <v>937</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1196</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>1541</v>
+        <v>387</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1296</v>
+        <v>938</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>1181</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1268</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>1209</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1269</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1221</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>1165</v>
+        <v>421</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
       </c>
-      <c r="D39" t="s">
-        <v>1270</v>
-      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1218</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1271</v>
+        <v>941</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>1158</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>1167</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1297</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1160</v>
+        <v>1248</v>
       </c>
       <c r="B42" t="s">
-        <v>1419</v>
+        <v>1378</v>
       </c>
       <c r="C42" t="s">
         <v>499</v>
       </c>
-      <c r="D42" t="s">
-        <v>1298</v>
-      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="B43" t="s">
-        <v>1365</v>
+        <v>1455</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1299</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1215</v>
+        <v>1248</v>
       </c>
       <c r="B44" t="s">
-        <v>1542</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>1300</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="B45" t="s">
-        <v>319</v>
+        <v>1169</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>1301</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1180</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>1207</v>
+        <v>335</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
-      <c r="D46" t="s">
-        <v>1302</v>
-      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>1197</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>1543</v>
+        <v>1379</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>977</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1255</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>1245</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>1304</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
       <c r="B50" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1305</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>1237</v>
       </c>
       <c r="B51" t="s">
-        <v>1232</v>
+        <v>1540</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1306</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B52" t="s">
-        <v>1545</v>
+        <v>461</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>1307</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>1175</v>
       </c>
       <c r="B53" t="s">
-        <v>345</v>
+        <v>1622</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
-      <c r="D53" t="s">
-        <v>1308</v>
-      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1254</v>
+        <v>1175</v>
       </c>
       <c r="B54" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>982</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>1196</v>
       </c>
       <c r="B55" t="s">
-        <v>443</v>
+        <v>1541</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="B56" t="s">
-        <v>1573</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>985</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1162</v>
+        <v>252</v>
       </c>
       <c r="B57" t="s">
-        <v>1546</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>1310</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1159</v>
+        <v>1221</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>1165</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>986</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1191</v>
+        <v>1218</v>
       </c>
       <c r="B59" t="s">
-        <v>1192</v>
+        <v>1219</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>1331</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>1190</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>1261</v>
+        <v>407</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>1002</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>1160</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>1419</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1332</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>1239</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>1365</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>1333</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B63" t="s">
-        <v>403</v>
+        <v>1542</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>1004</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>1223</v>
       </c>
       <c r="B64" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>1334</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>1257</v>
+        <v>1180</v>
       </c>
       <c r="B65" t="s">
-        <v>1236</v>
+        <v>1207</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>1005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>296</v>
+        <v>1197</v>
       </c>
       <c r="B66" t="s">
-        <v>481</v>
+        <v>1543</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>1007</v>
+        <v>977</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>1217</v>
+        <v>1255</v>
       </c>
       <c r="B67" t="s">
-        <v>1216</v>
+        <v>401</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>1008</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>1009</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B69" t="s">
-        <v>1258</v>
+        <v>1544</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>1010</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1244</v>
+        <v>298</v>
       </c>
       <c r="B70" t="s">
-        <v>1547</v>
+        <v>1232</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>1011</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="B71" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C71" t="s">
         <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>1335</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>1231</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>1230</v>
+        <v>345</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>1336</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>1189</v>
+        <v>1254</v>
       </c>
       <c r="B73" t="s">
-        <v>1583</v>
+        <v>1170</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>1012</v>
+        <v>982</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>1187</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>1551</v>
+        <v>443</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>1013</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B75" t="s">
-        <v>1451</v>
+        <v>1573</v>
       </c>
       <c r="C75" t="s">
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1591</v>
+        <v>985</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>1238</v>
+        <v>1162</v>
       </c>
       <c r="B76" t="s">
-        <v>308</v>
+        <v>1546</v>
       </c>
       <c r="C76" t="s">
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1337</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B77" t="s">
-        <v>1166</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1338</v>
+        <v>986</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1182</v>
+        <v>1191</v>
       </c>
       <c r="B78" t="s">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>1190</v>
       </c>
       <c r="B79" t="s">
-        <v>372</v>
+        <v>1261</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1340</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>1250</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>1168</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>1220</v>
       </c>
       <c r="B82" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>1343</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="C83" t="s">
         <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>1592</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>1257</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>1236</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
       </c>
       <c r="D84" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B85" t="s">
+        <v>481</v>
+      </c>
+      <c r="C85" t="s">
+        <v>499</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>499</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C88" t="s">
+        <v>499</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C89" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C90" t="s">
+        <v>499</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C91" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C92" t="s">
+        <v>499</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C94" t="s">
+        <v>499</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>499</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C97" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" t="s">
+        <v>372</v>
+      </c>
+      <c r="C98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>499</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" t="s">
+        <v>362</v>
+      </c>
+      <c r="C100" t="s">
+        <v>499</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
+        <v>483</v>
+      </c>
+      <c r="C101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" t="s">
+        <v>364</v>
+      </c>
+      <c r="C102" t="s">
+        <v>499</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" t="s">
+        <v>354</v>
+      </c>
+      <c r="C103" t="s">
+        <v>499</v>
+      </c>
+      <c r="D103" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -16822,7 +17011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86893216-B48E-45BD-BD70-F608460F473D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8EA2F7-C41B-407C-AF0E-EEA50122DF06}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17015,10 +17204,10 @@
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1614</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>1616</v>
+        <v>702</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>1312</v>
@@ -17028,7 +17217,7 @@
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>804</v>
+        <v>1354</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>619</v>
@@ -17037,23 +17226,23 @@
         <v>1314</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>555</v>
+        <v>1457</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1316</v>
+        <v>1553</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="R4" s="60" t="s">
-        <v>910</v>
+        <v>722</v>
       </c>
       <c r="S4" s="19"/>
       <c r="V4" s="63"/>
@@ -17062,49 +17251,49 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="70" t="s">
         <v>1161</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="70" t="s">
         <v>167</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>1205</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="70" t="s">
         <v>116</v>
       </c>
       <c r="K5" s="67" t="s">
         <v>1253</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="70" t="s">
         <v>1163</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="70" t="s">
         <v>1252</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="70" t="s">
         <v>164</v>
       </c>
       <c r="O5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="Q5" s="67" t="s">
+      <c r="Q5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="67" t="s">
+      <c r="R5" s="70" t="s">
         <v>291</v>
       </c>
       <c r="S5" s="21"/>
@@ -17114,20 +17303,20 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1614</v>
+        <v>1395</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1617</v>
+        <v>1393</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>804</v>
+        <v>1354</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>1528</v>
@@ -17136,23 +17325,23 @@
         <v>1315</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1559</v>
+        <v>1529</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1317</v>
+        <v>1603</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1601</v>
+        <v>1396</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1601</v>
+        <v>1396</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1429</v>
+        <v>1604</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>910</v>
+        <v>722</v>
       </c>
       <c r="S6" s="25"/>
       <c r="V6" s="63"/>
@@ -17193,20 +17382,20 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="60" t="s">
-        <v>758</v>
+        <v>645</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>888</v>
+        <v>1355</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>732</v>
+        <v>1311</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1622</v>
+        <v>1356</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>1430</v>
@@ -17229,7 +17418,7 @@
         <v>597</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>778</v>
+        <v>1558</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -17239,22 +17428,22 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="70" t="s">
         <v>199</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="70" t="s">
         <v>1177</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="70" t="s">
         <v>185</v>
       </c>
       <c r="H9" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="70" t="s">
         <v>1241</v>
       </c>
       <c r="J9" s="67" t="s">
@@ -17266,7 +17455,7 @@
       <c r="L9" s="67" t="s">
         <v>1156</v>
       </c>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="70" t="s">
         <v>1198</v>
       </c>
       <c r="N9" s="67" t="s">
@@ -17281,7 +17470,7 @@
       <c r="Q9" s="67" t="s">
         <v>1209</v>
       </c>
-      <c r="R9" s="67" t="s">
+      <c r="R9" s="70" t="s">
         <v>210</v>
       </c>
       <c r="S9" s="21"/>
@@ -17291,30 +17480,30 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="24" t="s">
-        <v>1618</v>
+        <v>567</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>1619</v>
+        <v>1397</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1620</v>
+        <v>1318</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>1319</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1623</v>
+        <v>1398</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>1431</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>1537</v>
@@ -17324,10 +17513,10 @@
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>1538</v>
+        <v>730</v>
       </c>
       <c r="S10" s="31"/>
       <c r="V10" s="63"/>
@@ -17362,14 +17551,14 @@
         <v>1321</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1624</v>
+        <v>1456</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
         <v>1323</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>593</v>
+        <v>1380</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>651</v>
@@ -17394,7 +17583,7 @@
       <c r="D13" s="67" t="s">
         <v>1158</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="70" t="s">
         <v>1248</v>
       </c>
       <c r="F13" s="67" t="s">
@@ -17403,7 +17592,7 @@
       <c r="G13" s="67" t="s">
         <v>1233</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="70" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="67" t="s">
@@ -17433,14 +17622,14 @@
         <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1625</v>
+        <v>1530</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
         <v>1324</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1626</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>1274</v>
@@ -17552,7 +17741,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -17583,7 +17772,7 @@
         <v>864</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>1628</v>
+        <v>1382</v>
       </c>
       <c r="I20" s="60" t="s">
         <v>1563</v>
@@ -17611,7 +17800,7 @@
         <v>1366</v>
       </c>
       <c r="R20" s="60" t="s">
-        <v>732</v>
+        <v>633</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="63"/>
@@ -17633,7 +17822,7 @@
       <c r="G21" s="67" t="s">
         <v>1186</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="70" t="s">
         <v>1175</v>
       </c>
       <c r="I21" s="67" t="s">
@@ -17663,7 +17852,7 @@
       <c r="Q21" s="67" t="s">
         <v>1239</v>
       </c>
-      <c r="R21" s="67" t="s">
+      <c r="R21" s="70" t="s">
         <v>185</v>
       </c>
       <c r="S21" s="21"/>
@@ -17684,10 +17873,10 @@
         <v>1414</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1629</v>
+        <v>1394</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>722</v>
@@ -17712,7 +17901,7 @@
         <v>1407</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -17927,7 +18116,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
       <c r="R31" s="56" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
@@ -18032,7 +18221,7 @@
       <c r="Q33" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="R33" s="67" t="s">
+      <c r="R33" s="70" t="s">
         <v>164</v>
       </c>
       <c r="S33" s="21"/>
@@ -18070,16 +18259,16 @@
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1329</v>
       </c>
       <c r="Q34" s="24" t="s">
+        <v>1611</v>
+      </c>
+      <c r="R34" s="24" t="s">
         <v>1606</v>
-      </c>
-      <c r="R34" s="24" t="s">
-        <v>1601</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -18693,7 +18882,7 @@
         <v>916</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>758</v>
+        <v>1597</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
@@ -18743,7 +18932,7 @@
       <c r="L57" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="M57" s="67" t="s">
+      <c r="M57" s="70" t="s">
         <v>199</v>
       </c>
       <c r="N57" s="67" t="s">
@@ -18792,11 +18981,11 @@
         <v>1447</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>1618</v>
+        <v>1599</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="P58" s="24" t="s">
         <v>1590</v>
@@ -18805,7 +18994,7 @@
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -18841,7 +19030,7 @@
         <v>635</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>1624</v>
+        <v>691</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -18869,7 +19058,7 @@
       <c r="E61" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="67" t="s">
+      <c r="F61" s="70" t="s">
         <v>1248</v>
       </c>
       <c r="G61" s="69" t="s">
@@ -18894,13 +19083,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>1590</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1625</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AA577D-9562-45CF-B467-E197749359A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DEEB2AA-0D91-4157-B7B3-C333E581905C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25800" yWindow="1605" windowWidth="23340" windowHeight="13020" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1626">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5577,6 +5577,10 @@
   </si>
   <si>
     <t>(9, 4); (57, 13)</t>
+  </si>
+  <si>
+    <t>cit6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6217,7 +6221,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -23195,7 +23199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76D52A7-DDED-4E45-BE33-C0A3F1BC7DAF}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -25829,7 +25833,7 @@
         <v>702</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>720</v>
@@ -25928,7 +25932,7 @@
         <v>1393</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1313</v>
+        <v>1625</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>1602</v>
@@ -27566,7 +27570,7 @@
       <c r="Q57" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="46" t="s">
+      <c r="R57" s="67" t="s">
         <v>164</v>
       </c>
       <c r="S57" s="21"/>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DEEB2AA-0D91-4157-B7B3-C333E581905C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62D453A-F4CB-4052-80AE-D5C563968FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="1605" windowWidth="23340" windowHeight="13020" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -25667,7 +25667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62D453A-F4CB-4052-80AE-D5C563968FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EBAD549-4E8F-43A3-ADDE-AFD926787339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="人工標音字庫" sheetId="352" r:id="rId2"/>
-    <sheet name="標音字庫" sheetId="356" r:id="rId3"/>
-    <sheet name="標音字庫 ( before a210)" sheetId="355" r:id="rId4"/>
-    <sheet name="缺字表" sheetId="353" r:id="rId5"/>
+    <sheet name="標音字庫 ( before a210)" sheetId="355" r:id="rId3"/>
+    <sheet name="標音字庫" sheetId="358" r:id="rId4"/>
+    <sheet name="缺字表" sheetId="357" r:id="rId5"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId6"/>
     <sheet name="漢字注音 (白話音)" sheetId="279" r:id="rId7"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId8"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="1633">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5484,18 +5484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ú</t>
   </si>
   <si>
@@ -5503,14 +5491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>du3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5558,9 +5538,6 @@
     <t>(21, 18)</t>
   </si>
   <si>
-    <t>(57, 18); (33, 18)</t>
-  </si>
-  <si>
     <t>sam1</t>
   </si>
   <si>
@@ -5579,7 +5556,58 @@
     <t>(9, 4); (57, 13)</t>
   </si>
   <si>
-    <t>cit6</t>
+    <t>Goa̍t</t>
+  </si>
+  <si>
+    <t>sam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gguat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zenn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zne2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6019,7 +6047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6224,7 +6252,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -22976,7 +23007,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -22987,7 +23018,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D10" t="s">
         <v>984</v>
@@ -23046,7 +23077,7 @@
         <v>1596</v>
       </c>
       <c r="D14" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -23074,7 +23105,7 @@
         <v>1179</v>
       </c>
       <c r="D16" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -23088,7 +23119,7 @@
         <v>1595</v>
       </c>
       <c r="D17" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -23183,7 +23214,7 @@
         <v>1176</v>
       </c>
       <c r="C24" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="D24" t="s">
         <v>1267</v>
@@ -23196,1254 +23227,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76D52A7-DDED-4E45-BE33-C0A3F1BC7DAF}">
-  <dimension ref="A1:D88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D2" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D8" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D9" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D10" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" t="s">
-        <v>457</v>
-      </c>
-      <c r="C20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C22" t="s">
-        <v>499</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D24" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" t="s">
-        <v>387</v>
-      </c>
-      <c r="C25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D26" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B27" t="s">
-        <v>336</v>
-      </c>
-      <c r="C27" t="s">
-        <v>499</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D28" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C29" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D30" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B31" t="s">
-        <v>380</v>
-      </c>
-      <c r="C31" t="s">
-        <v>380</v>
-      </c>
-      <c r="D31" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" t="s">
-        <v>362</v>
-      </c>
-      <c r="C34" t="s">
-        <v>499</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B35" t="s">
-        <v>420</v>
-      </c>
-      <c r="C35" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C36" t="s">
-        <v>499</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C37" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C40" t="s">
-        <v>499</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" t="s">
-        <v>499</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>252</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>499</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C43" t="s">
-        <v>499</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C44" t="s">
-        <v>499</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" t="s">
-        <v>407</v>
-      </c>
-      <c r="C45" t="s">
-        <v>499</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C46" t="s">
-        <v>499</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C47" t="s">
-        <v>499</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C48" t="s">
-        <v>499</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B49" t="s">
-        <v>319</v>
-      </c>
-      <c r="C49" t="s">
-        <v>499</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C50" t="s">
-        <v>499</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C51" t="s">
-        <v>499</v>
-      </c>
-      <c r="D51" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B52" t="s">
-        <v>401</v>
-      </c>
-      <c r="C52" t="s">
-        <v>499</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>499</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C54" t="s">
-        <v>499</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>298</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C55" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C56" t="s">
-        <v>499</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" t="s">
-        <v>345</v>
-      </c>
-      <c r="C57" t="s">
-        <v>499</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C58" t="s">
-        <v>499</v>
-      </c>
-      <c r="D58" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" t="s">
-        <v>443</v>
-      </c>
-      <c r="C59" t="s">
-        <v>499</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C60" t="s">
-        <v>499</v>
-      </c>
-      <c r="D60" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C61" t="s">
-        <v>499</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="s">
-        <v>499</v>
-      </c>
-      <c r="D62" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C63" t="s">
-        <v>499</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C64" t="s">
-        <v>499</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>303</v>
-      </c>
-      <c r="C65" t="s">
-        <v>499</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" t="s">
-        <v>389</v>
-      </c>
-      <c r="C66" t="s">
-        <v>499</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B67" t="s">
-        <v>403</v>
-      </c>
-      <c r="C67" t="s">
-        <v>499</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>262</v>
-      </c>
-      <c r="B68" t="s">
-        <v>460</v>
-      </c>
-      <c r="C68" t="s">
-        <v>499</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C69" t="s">
-        <v>499</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>296</v>
-      </c>
-      <c r="B70" t="s">
-        <v>481</v>
-      </c>
-      <c r="C70" t="s">
-        <v>499</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C71" t="s">
-        <v>499</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" t="s">
-        <v>348</v>
-      </c>
-      <c r="C72" t="s">
-        <v>499</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C73" t="s">
-        <v>499</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C74" t="s">
-        <v>499</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C75" t="s">
-        <v>499</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>499</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C77" t="s">
-        <v>499</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C78" t="s">
-        <v>499</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C79" t="s">
-        <v>499</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B80" t="s">
-        <v>308</v>
-      </c>
-      <c r="C80" t="s">
-        <v>499</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>499</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C82" t="s">
-        <v>499</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" t="s">
-        <v>372</v>
-      </c>
-      <c r="C83" t="s">
-        <v>499</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C84" t="s">
-        <v>499</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>280</v>
-      </c>
-      <c r="B85" t="s">
-        <v>362</v>
-      </c>
-      <c r="C85" t="s">
-        <v>499</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>299</v>
-      </c>
-      <c r="B86" t="s">
-        <v>483</v>
-      </c>
-      <c r="C86" t="s">
-        <v>499</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" t="s">
-        <v>364</v>
-      </c>
-      <c r="C87" t="s">
-        <v>499</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" t="s">
-        <v>354</v>
-      </c>
-      <c r="C88" t="s">
-        <v>499</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330E9C5D-BB98-4A88-AAD5-AC1DF76F6B84}">
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -24472,7 +23255,7 @@
         <v>1161</v>
       </c>
       <c r="B2" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
@@ -24486,7 +23269,7 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
@@ -24604,7 +23387,7 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -24646,7 +23429,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -24696,7 +23479,7 @@
         <v>1241</v>
       </c>
       <c r="B18" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
@@ -24934,7 +23717,1197 @@
         <v>1175</v>
       </c>
       <c r="B35" t="s">
-        <v>1622</v>
+        <v>1616</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C41" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C42" t="s">
+        <v>499</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C43" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C44" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B48" t="s">
+        <v>401</v>
+      </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C51" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" t="s">
+        <v>499</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" t="s">
+        <v>443</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D56" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B63" t="s">
+        <v>403</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>460</v>
+      </c>
+      <c r="C64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" t="s">
+        <v>481</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C70" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C71" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C72" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C73" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C74" t="s">
+        <v>499</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B76" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" t="s">
+        <v>499</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" t="s">
+        <v>483</v>
+      </c>
+      <c r="C82" t="s">
+        <v>499</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>354</v>
+      </c>
+      <c r="C84" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7984E9B-34AF-46B3-A9B8-A28519DEB9A9}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D21" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1616</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
@@ -25636,7 +25609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF95320-84C6-4421-9596-92499A8638CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A20C43D-E7AF-4C30-915C-E62FE0256D54}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25788,7 +25761,7 @@
         <v>1173</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>386</v>
+        <v>1619</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56" t="s">
@@ -25829,20 +25802,20 @@
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1353</v>
+        <v>1620</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>702</v>
+        <v>1621</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>720</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>1354</v>
+        <v>804</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>619</v>
@@ -25851,23 +25824,23 @@
         <v>1314</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1457</v>
+        <v>555</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1553</v>
+        <v>1316</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>840</v>
+        <v>591</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>840</v>
+        <v>591</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="R4" s="60" t="s">
-        <v>722</v>
+        <v>910</v>
       </c>
       <c r="S4" s="19"/>
       <c r="V4" s="63"/>
@@ -25882,13 +25855,13 @@
       <c r="E5" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="67" t="s">
         <v>1205</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="67" t="s">
@@ -25897,7 +25870,7 @@
       <c r="J5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="67" t="s">
         <v>1253</v>
       </c>
       <c r="L5" s="67" t="s">
@@ -25909,7 +25882,7 @@
       <c r="N5" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="67" t="s">
@@ -25928,20 +25901,20 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1395</v>
+        <v>1620</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1393</v>
+        <v>1622</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1625</v>
+        <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>1354</v>
+        <v>804</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>1528</v>
@@ -25950,23 +25923,23 @@
         <v>1315</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1529</v>
+        <v>1559</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1603</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1396</v>
+        <v>1601</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1396</v>
+        <v>1601</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1604</v>
+        <v>1429</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>722</v>
+        <v>910</v>
       </c>
       <c r="S6" s="25"/>
       <c r="V6" s="63"/>
@@ -26007,20 +25980,20 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="60" t="s">
-        <v>645</v>
+        <v>758</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>1355</v>
+        <v>888</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>1311</v>
+        <v>732</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1356</v>
+        <v>1626</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>1430</v>
@@ -26043,7 +26016,7 @@
         <v>597</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>1558</v>
+        <v>778</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -26056,7 +26029,7 @@
       <c r="D9" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="67" t="s">
@@ -26065,34 +26038,34 @@
       <c r="G9" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="67" t="s">
         <v>259</v>
       </c>
       <c r="I9" s="67" t="s">
         <v>1241</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="67" t="s">
         <v>1242</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="67" t="s">
         <v>1156</v>
       </c>
       <c r="M9" s="67" t="s">
         <v>1198</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="67" t="s">
         <v>1202</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="67" t="s">
         <v>1209</v>
       </c>
       <c r="R9" s="67" t="s">
@@ -26105,30 +26078,30 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="24" t="s">
-        <v>567</v>
+        <v>1623</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>1397</v>
+        <v>1624</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1318</v>
+        <v>1625</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>1319</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1398</v>
+        <v>1627</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>1431</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>1537</v>
@@ -26138,10 +26111,10 @@
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>730</v>
+        <v>1538</v>
       </c>
       <c r="S10" s="31"/>
       <c r="V10" s="63"/>
@@ -26176,14 +26149,14 @@
         <v>1321</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1456</v>
+        <v>1628</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
         <v>1323</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1380</v>
+        <v>593</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>651</v>
@@ -26205,28 +26178,28 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="67" t="s">
         <v>1158</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="67" t="s">
         <v>1233</v>
       </c>
       <c r="H13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="46" t="str">
+      <c r="K13" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26247,14 +26220,14 @@
         <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1530</v>
+        <v>1629</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
         <v>1324</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1400</v>
+        <v>1630</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>1274</v>
@@ -26316,7 +26289,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="46" t="str">
+      <c r="D17" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26366,7 +26339,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -26397,7 +26370,7 @@
         <v>864</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>1382</v>
+        <v>1631</v>
       </c>
       <c r="I20" s="60" t="s">
         <v>1563</v>
@@ -26425,7 +26398,7 @@
         <v>1366</v>
       </c>
       <c r="R20" s="60" t="s">
-        <v>633</v>
+        <v>732</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="63"/>
@@ -26435,46 +26408,46 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="67" t="s">
         <v>1245</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="67" t="s">
         <v>1203</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="67" t="s">
         <v>1360</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="67" t="s">
         <v>1186</v>
       </c>
       <c r="H21" s="67" t="s">
         <v>1175</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="67" t="s">
         <v>1196</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="67" t="s">
         <v>1200</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="67" t="s">
         <v>252</v>
       </c>
       <c r="M21" s="68" t="s">
         <v>1221</v>
       </c>
-      <c r="N21" s="46" t="s">
+      <c r="N21" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="O21" s="46" t="s">
+      <c r="O21" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="67" t="s">
         <v>1364</v>
       </c>
-      <c r="Q21" s="46" t="s">
+      <c r="Q21" s="67" t="s">
         <v>1239</v>
       </c>
       <c r="R21" s="67" t="s">
@@ -26498,10 +26471,10 @@
         <v>1414</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1394</v>
+        <v>1632</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>722</v>
@@ -26526,7 +26499,7 @@
         <v>1407</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1598</v>
+        <v>1625</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -26576,10 +26549,10 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="46" t="str">
+      <c r="E25" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26673,7 +26646,7 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="46" t="str">
+      <c r="D29" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26741,7 +26714,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
       <c r="R31" s="56" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
@@ -26804,46 +26777,46 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="67" t="s">
         <v>1215</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="67" t="s">
         <v>1223</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="67" t="s">
         <v>1180</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="67" t="s">
         <v>1197</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="67" t="s">
         <v>1255</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="J33" s="67" t="s">
         <v>1193</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="67" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="46" t="s">
+      <c r="N33" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="46" t="s">
+      <c r="O33" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="46" t="s">
+      <c r="P33" s="67" t="s">
         <v>1254</v>
       </c>
-      <c r="Q33" s="46" t="s">
+      <c r="Q33" s="67" t="s">
         <v>237</v>
       </c>
       <c r="R33" s="67" t="s">
@@ -26884,16 +26857,16 @@
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1329</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -26949,19 +26922,19 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="67" t="s">
         <v>1212</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="67" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="67" t="s">
         <v>1159</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="46" t="str">
+      <c r="H37" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27056,7 +27029,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="46" t="str">
+      <c r="D41" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27169,49 +27142,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="67" t="s">
         <v>1191</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="67" t="s">
         <v>1190</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="46" t="s">
+      <c r="H45" s="67" t="s">
         <v>1220</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="46" t="s">
+      <c r="J45" s="67" t="s">
         <v>1257</v>
       </c>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="46" t="s">
+      <c r="L45" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="M45" s="46" t="s">
+      <c r="M45" s="67" t="s">
         <v>1217</v>
       </c>
-      <c r="N45" s="46" t="s">
+      <c r="N45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="46" t="s">
+      <c r="O45" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="P45" s="46" t="s">
+      <c r="P45" s="67" t="s">
         <v>1199</v>
       </c>
-      <c r="Q45" s="46" t="s">
+      <c r="Q45" s="67" t="s">
         <v>1244</v>
       </c>
-      <c r="R45" s="46" t="s">
+      <c r="R45" s="67" t="s">
         <v>1195</v>
       </c>
       <c r="S45" s="21"/>
@@ -27314,19 +27287,19 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="67" t="s">
         <v>1231</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="67" t="s">
         <v>1189</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="67" t="s">
         <v>1187</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="46" t="str">
+      <c r="H49" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27415,7 +27388,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="46" t="str">
+      <c r="D53" s="67" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27507,7 +27480,7 @@
         <v>916</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>1597</v>
+        <v>758</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
@@ -27530,46 +27503,46 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="67" t="s">
         <v>1214</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="67" t="s">
         <v>1238</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="67" t="s">
         <v>1157</v>
       </c>
-      <c r="G57" s="61" t="s">
+      <c r="G57" s="69" t="s">
         <v>1182</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="46" t="s">
+      <c r="I57" s="67" t="s">
         <v>1250</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="K57" s="46" t="s">
+      <c r="K57" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="67" t="s">
         <v>299</v>
       </c>
       <c r="M57" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="N57" s="46" t="s">
+      <c r="N57" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="46" t="s">
+      <c r="O57" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="46" t="s">
+      <c r="P57" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" s="46" t="s">
+      <c r="Q57" s="67" t="s">
         <v>170</v>
       </c>
       <c r="R57" s="67" t="s">
@@ -27606,11 +27579,11 @@
         <v>1447</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>1599</v>
+        <v>1623</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="P58" s="24" t="s">
         <v>1590</v>
@@ -27619,7 +27592,7 @@
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -27655,7 +27628,7 @@
         <v>635</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>691</v>
+        <v>1628</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -27677,19 +27650,19 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="G61" s="61" t="s">
+      <c r="G61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="67" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="41"/>
@@ -27708,13 +27681,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>1590</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1600</v>
+        <v>1629</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EBAD549-4E8F-43A3-ADDE-AFD926787339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E17F4A5-78D0-40D9-A9E7-DB060D3F91E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView minimized="1" xWindow="-26760" yWindow="2565" windowWidth="23340" windowHeight="13020" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="人工標音字庫" sheetId="352" r:id="rId2"/>
     <sheet name="標音字庫 ( before a210)" sheetId="355" r:id="rId3"/>
-    <sheet name="標音字庫" sheetId="358" r:id="rId4"/>
-    <sheet name="缺字表" sheetId="357" r:id="rId5"/>
+    <sheet name="標音字庫" sheetId="360" r:id="rId4"/>
+    <sheet name="缺字表" sheetId="359" r:id="rId5"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId6"/>
     <sheet name="漢字注音 (白話音)" sheetId="279" r:id="rId7"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId8"/>
@@ -23231,7 +23231,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D84"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24419,7 +24419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7984E9B-34AF-46B3-A9B8-A28519DEB9A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397DC50-5A5D-43EB-82AE-9F94049769CA}">
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25609,10 +25609,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A20C43D-E7AF-4C30-915C-E62FE0256D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E8B65E-2867-45CE-98BF-46B09461FB5E}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>

--- a/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《定風波》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E17F4A5-78D0-40D9-A9E7-DB060D3F91E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEC87C4-77A3-4A41-BE31-1267EFF3D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26760" yWindow="2565" windowWidth="23340" windowHeight="13020" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="1628">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5484,6 +5484,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ú</t>
   </si>
   <si>
@@ -5491,6 +5503,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>du3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5538,6 +5558,9 @@
     <t>(21, 18)</t>
   </si>
   <si>
+    <t>(57, 18); (33, 18)</t>
+  </si>
+  <si>
     <t>sam1</t>
   </si>
   <si>
@@ -5559,55 +5582,11 @@
     <t>Goa̍t</t>
   </si>
   <si>
-    <t>sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guat8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gguat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zenn5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zne2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zok7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pah7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6047,7 +6026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6248,6 +6227,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22878,7 +22860,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4929077-2B03-4B67-917B-CCA43B6419D7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22928,86 +22910,86 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>1620</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>1625</v>
       </c>
       <c r="D4" t="s">
-        <v>1286</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>1225</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>1225</v>
+        <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>346</v>
+        <v>1225</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>1225</v>
       </c>
       <c r="D6" t="s">
-        <v>923</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1163</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>1171</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>1171</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1252</v>
+        <v>1163</v>
       </c>
       <c r="B8" t="s">
-        <v>1552</v>
+        <v>1171</v>
       </c>
       <c r="C8" t="s">
-        <v>1552</v>
+        <v>1171</v>
       </c>
       <c r="D8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>1252</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>1552</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>1552</v>
       </c>
       <c r="D9" t="s">
-        <v>1609</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -23015,55 +22997,55 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>1598</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>984</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>1601</v>
       </c>
       <c r="D11" t="s">
-        <v>930</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>1288</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>931</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -23071,41 +23053,41 @@
         <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>1596</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>1596</v>
+        <v>359</v>
       </c>
       <c r="D14" t="s">
-        <v>1610</v>
+        <v>931</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1177</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>1178</v>
+        <v>1596</v>
       </c>
       <c r="C15" t="s">
-        <v>1178</v>
+        <v>1596</v>
       </c>
       <c r="D15" t="s">
-        <v>1289</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>1177</v>
       </c>
       <c r="B16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D16" t="s">
-        <v>1611</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -23113,69 +23095,69 @@
         <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>1179</v>
       </c>
       <c r="C17" t="s">
-        <v>1595</v>
+        <v>1179</v>
       </c>
       <c r="D17" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1241</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>1226</v>
+        <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>1226</v>
+        <v>1595</v>
       </c>
       <c r="D18" t="s">
-        <v>1290</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1198</v>
+        <v>1241</v>
       </c>
       <c r="B19" t="s">
-        <v>1536</v>
+        <v>1226</v>
       </c>
       <c r="C19" t="s">
-        <v>1536</v>
+        <v>1226</v>
       </c>
       <c r="D19" t="s">
-        <v>937</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>1198</v>
       </c>
       <c r="B20" t="s">
-        <v>1228</v>
+        <v>1536</v>
       </c>
       <c r="C20" t="s">
-        <v>1228</v>
+        <v>1536</v>
       </c>
       <c r="D20" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>1455</v>
+        <v>1228</v>
       </c>
       <c r="C21" t="s">
-        <v>1455</v>
+        <v>1228</v>
       </c>
       <c r="D21" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -23183,40 +23165,54 @@
         <v>1248</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>1455</v>
       </c>
       <c r="C22" t="s">
-        <v>1594</v>
+        <v>1455</v>
       </c>
       <c r="D22" t="s">
-        <v>502</v>
+        <v>943</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>1248</v>
       </c>
       <c r="B23" t="s">
-        <v>1379</v>
+        <v>380</v>
       </c>
       <c r="C23" t="s">
-        <v>1379</v>
+        <v>1594</v>
       </c>
       <c r="D23" t="s">
-        <v>1294</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>1175</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>1176</v>
       </c>
-      <c r="C24" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D25" t="s">
         <v>1267</v>
       </c>
     </row>
@@ -23255,7 +23251,7 @@
         <v>1161</v>
       </c>
       <c r="B2" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
@@ -23269,7 +23265,7 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
@@ -23387,7 +23383,7 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -23429,7 +23425,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -23479,7 +23475,7 @@
         <v>1241</v>
       </c>
       <c r="B18" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
@@ -23717,7 +23713,7 @@
         <v>1175</v>
       </c>
       <c r="B35" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
@@ -24420,7 +24416,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397DC50-5A5D-43EB-82AE-9F94049769CA}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24445,7 +24441,7 @@
         <v>1161</v>
       </c>
       <c r="B2" t="s">
-        <v>1613</v>
+        <v>1173</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
@@ -24459,7 +24455,7 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
@@ -24501,7 +24497,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>1225</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
@@ -24543,7 +24539,7 @@
         <v>1163</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>1171</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
@@ -24557,7 +24553,7 @@
         <v>1252</v>
       </c>
       <c r="B10" t="s">
-        <v>1247</v>
+        <v>1552</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
@@ -24577,1028 +24573,1084 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>930</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1288</v>
+        <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1618</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1177</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1289</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>1596</v>
       </c>
       <c r="C16" t="s">
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1448</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>1177</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>1178</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>933</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1241</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>1615</v>
+        <v>1179</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1290</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1242</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>1227</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1291</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1156</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
-        <v>1164</v>
+        <v>457</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1292</v>
+        <v>933</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1198</v>
+        <v>1241</v>
       </c>
       <c r="B21" t="s">
-        <v>1536</v>
+        <v>1226</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>937</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>1242</v>
       </c>
       <c r="B22" t="s">
-        <v>387</v>
+        <v>1227</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>938</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1202</v>
+        <v>1156</v>
       </c>
       <c r="B23" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>939</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>1536</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1293</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1158</v>
+        <v>1202</v>
       </c>
       <c r="B26" t="s">
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1248</v>
+        <v>1209</v>
       </c>
       <c r="B27" t="s">
-        <v>1378</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1330</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1233</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>1169</v>
+        <v>1228</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1263</v>
+        <v>941</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>1158</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>1167</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1294</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>1248</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>1455</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1295</v>
+        <v>943</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B31" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1172</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1203</v>
+        <v>1233</v>
       </c>
       <c r="B32" t="s">
-        <v>1539</v>
+        <v>1169</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1237</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>1540</v>
+        <v>1379</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1265</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1186</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>461</v>
+        <v>362</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1266</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1175</v>
+        <v>1245</v>
       </c>
       <c r="B35" t="s">
-        <v>1616</v>
+        <v>420</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1267</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="B36" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1296</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1200</v>
+        <v>1237</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>1540</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>1186</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1221</v>
+        <v>1175</v>
       </c>
       <c r="B39" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1218</v>
+        <v>1196</v>
       </c>
       <c r="B40" t="s">
-        <v>1219</v>
+        <v>1541</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1271</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>1200</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1297</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1160</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s">
-        <v>1419</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>1298</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1239</v>
+        <v>1221</v>
       </c>
       <c r="B43" t="s">
-        <v>1365</v>
+        <v>1165</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1299</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B44" t="s">
-        <v>1542</v>
+        <v>1219</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>1300</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>1223</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>319</v>
+        <v>407</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="B46" t="s">
-        <v>1207</v>
+        <v>1419</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>1197</v>
+        <v>1239</v>
       </c>
       <c r="B47" t="s">
-        <v>1543</v>
+        <v>1365</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>977</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1255</v>
+        <v>1215</v>
       </c>
       <c r="B48" t="s">
-        <v>401</v>
+        <v>1542</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>1223</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="B50" t="s">
-        <v>1544</v>
+        <v>1207</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>1197</v>
       </c>
       <c r="B51" t="s">
-        <v>1232</v>
+        <v>1543</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1306</v>
+        <v>977</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1185</v>
+        <v>1255</v>
       </c>
       <c r="B52" t="s">
-        <v>1545</v>
+        <v>401</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1254</v>
+        <v>1193</v>
       </c>
       <c r="B54" t="s">
-        <v>1170</v>
+        <v>1544</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>982</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s">
-        <v>443</v>
+        <v>1232</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1212</v>
+        <v>1185</v>
       </c>
       <c r="B56" t="s">
-        <v>1573</v>
+        <v>1545</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>985</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1162</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>1546</v>
+        <v>345</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1159</v>
+        <v>1254</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>1170</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1191</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
-        <v>1192</v>
+        <v>443</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>1331</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>1190</v>
+        <v>1212</v>
       </c>
       <c r="B60" t="s">
-        <v>1261</v>
+        <v>1573</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>1162</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>1546</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>1159</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>1333</v>
+        <v>986</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1220</v>
+        <v>1191</v>
       </c>
       <c r="B63" t="s">
-        <v>403</v>
+        <v>1192</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>1004</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>1190</v>
       </c>
       <c r="B64" t="s">
-        <v>460</v>
+        <v>1261</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>1334</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>1257</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>1236</v>
+        <v>303</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>1005</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>481</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>1007</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B67" t="s">
-        <v>1216</v>
+        <v>403</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
       <c r="C68" t="s">
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>1009</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>1199</v>
+        <v>1257</v>
       </c>
       <c r="B69" t="s">
-        <v>1258</v>
+        <v>1236</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1244</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
-        <v>1547</v>
+        <v>481</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>1195</v>
+        <v>1217</v>
       </c>
       <c r="B71" t="s">
-        <v>1548</v>
+        <v>1216</v>
       </c>
       <c r="C71" t="s">
         <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>1335</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>1231</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>1230</v>
+        <v>348</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>1336</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="B73" t="s">
-        <v>1583</v>
+        <v>1258</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>1187</v>
+        <v>1244</v>
       </c>
       <c r="B74" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>1214</v>
+        <v>1195</v>
       </c>
       <c r="B75" t="s">
-        <v>1451</v>
+        <v>1548</v>
       </c>
       <c r="C75" t="s">
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1591</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="B76" t="s">
-        <v>308</v>
+        <v>1230</v>
       </c>
       <c r="C76" t="s">
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>1157</v>
+        <v>1189</v>
       </c>
       <c r="B77" t="s">
-        <v>1166</v>
+        <v>1583</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1338</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="B78" t="s">
-        <v>1183</v>
+        <v>1551</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1339</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>1214</v>
       </c>
       <c r="B79" t="s">
-        <v>372</v>
+        <v>1451</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1340</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="B80" t="s">
-        <v>1168</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>280</v>
+        <v>1157</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>1166</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>1182</v>
       </c>
       <c r="B82" t="s">
-        <v>483</v>
+        <v>1183</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C83" t="s">
         <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>1592</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>1250</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>1168</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
       </c>
       <c r="D84" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" t="s">
+        <v>499</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B86" t="s">
+        <v>483</v>
+      </c>
+      <c r="C86" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" t="s">
+        <v>499</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" t="s">
+        <v>499</v>
+      </c>
+      <c r="D88" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -25613,7 +25665,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25763,7 +25815,7 @@
         <v>1173</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56" t="s">
@@ -25804,10 +25856,10 @@
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1620</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>1312</v>
@@ -25817,7 +25869,7 @@
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>804</v>
+        <v>1354</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>619</v>
@@ -25826,23 +25878,23 @@
         <v>1314</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>555</v>
+        <v>1457</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1316</v>
+        <v>1553</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="R4" s="60" t="s">
-        <v>910</v>
+        <v>722</v>
       </c>
       <c r="S4" s="19"/>
       <c r="V4" s="63"/>
@@ -25857,13 +25909,13 @@
       <c r="E5" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="68" t="s">
         <v>1205</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="68" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="67" t="s">
@@ -25872,7 +25924,7 @@
       <c r="J5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="68" t="s">
         <v>1253</v>
       </c>
       <c r="L5" s="67" t="s">
@@ -25884,7 +25936,7 @@
       <c r="N5" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="68" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="67" t="s">
@@ -25903,20 +25955,20 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1620</v>
+        <v>1395</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>804</v>
+        <v>1354</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>1528</v>
@@ -25925,23 +25977,23 @@
         <v>1315</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1559</v>
+        <v>1529</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1317</v>
+        <v>1603</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1601</v>
+        <v>1396</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1601</v>
+        <v>1396</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1429</v>
+        <v>1604</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>910</v>
+        <v>722</v>
       </c>
       <c r="S6" s="25"/>
       <c r="V6" s="63"/>
@@ -25982,20 +26034,20 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="60" t="s">
-        <v>758</v>
+        <v>645</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>888</v>
+        <v>1355</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>732</v>
+        <v>1311</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1626</v>
+        <v>1356</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>1430</v>
@@ -26018,7 +26070,7 @@
         <v>597</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>778</v>
+        <v>1558</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -26031,7 +26083,7 @@
       <c r="D9" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="68" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="67" t="s">
@@ -26040,34 +26092,34 @@
       <c r="G9" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="68" t="s">
         <v>259</v>
       </c>
       <c r="I9" s="67" t="s">
         <v>1241</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="68" t="s">
         <v>1242</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="68" t="s">
         <v>1156</v>
       </c>
       <c r="M9" s="67" t="s">
         <v>1198</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="67" t="s">
+      <c r="O9" s="68" t="s">
         <v>1202</v>
       </c>
-      <c r="P9" s="67" t="s">
+      <c r="P9" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="67" t="s">
+      <c r="Q9" s="68" t="s">
         <v>1209</v>
       </c>
       <c r="R9" s="67" t="s">
@@ -26080,30 +26132,30 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="24" t="s">
-        <v>1623</v>
+        <v>567</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>1624</v>
+        <v>1397</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1625</v>
+        <v>1318</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>1319</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1627</v>
+        <v>1398</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>1431</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>1537</v>
@@ -26113,10 +26165,10 @@
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>1538</v>
+        <v>730</v>
       </c>
       <c r="S10" s="31"/>
       <c r="V10" s="63"/>
@@ -26151,14 +26203,14 @@
         <v>1321</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1628</v>
+        <v>1456</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
         <v>1323</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>593</v>
+        <v>1380</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>651</v>
@@ -26180,28 +26232,28 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="68" t="s">
         <v>1158</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="68" t="s">
         <v>1233</v>
       </c>
       <c r="H13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="67" t="str">
+      <c r="K13" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26222,14 +26274,14 @@
         <v>1322</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1629</v>
+        <v>1530</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
         <v>1324</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1630</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>1274</v>
@@ -26291,7 +26343,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="67" t="str">
+      <c r="D17" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26341,7 +26393,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -26372,7 +26424,7 @@
         <v>864</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>1631</v>
+        <v>1382</v>
       </c>
       <c r="I20" s="60" t="s">
         <v>1563</v>
@@ -26400,7 +26452,7 @@
         <v>1366</v>
       </c>
       <c r="R20" s="60" t="s">
-        <v>732</v>
+        <v>633</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="63"/>
@@ -26410,46 +26462,46 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="68" t="s">
         <v>1245</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="68" t="s">
         <v>1203</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="68" t="s">
         <v>1360</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="68" t="s">
         <v>1186</v>
       </c>
       <c r="H21" s="67" t="s">
         <v>1175</v>
       </c>
-      <c r="I21" s="67" t="s">
+      <c r="I21" s="68" t="s">
         <v>1196</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="68" t="s">
         <v>1200</v>
       </c>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="69" t="s">
         <v>1221</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="68" t="s">
         <v>1218</v>
       </c>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="67" t="s">
+      <c r="P21" s="68" t="s">
         <v>1364</v>
       </c>
-      <c r="Q21" s="67" t="s">
+      <c r="Q21" s="68" t="s">
         <v>1239</v>
       </c>
       <c r="R21" s="67" t="s">
@@ -26473,10 +26525,10 @@
         <v>1414</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1632</v>
+        <v>1394</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>722</v>
@@ -26501,7 +26553,7 @@
         <v>1407</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1625</v>
+        <v>1598</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -26551,10 +26603,10 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="67" t="str">
+      <c r="E25" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26648,7 +26700,7 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="67" t="str">
+      <c r="D29" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -26716,7 +26768,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
       <c r="R31" s="56" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
@@ -26779,46 +26831,46 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="68" t="s">
         <v>1215</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="68" t="s">
         <v>1223</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="68" t="s">
         <v>1180</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="68" t="s">
         <v>1197</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="68" t="s">
         <v>1255</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="68" t="s">
         <v>1193</v>
       </c>
-      <c r="K33" s="67" t="s">
+      <c r="K33" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="67" t="s">
+      <c r="L33" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="68" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="67" t="s">
+      <c r="N33" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="67" t="s">
+      <c r="O33" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="67" t="s">
+      <c r="P33" s="68" t="s">
         <v>1254</v>
       </c>
-      <c r="Q33" s="67" t="s">
+      <c r="Q33" s="68" t="s">
         <v>237</v>
       </c>
       <c r="R33" s="67" t="s">
@@ -26859,16 +26911,16 @@
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1329</v>
       </c>
       <c r="Q34" s="24" t="s">
+        <v>1611</v>
+      </c>
+      <c r="R34" s="24" t="s">
         <v>1606</v>
-      </c>
-      <c r="R34" s="24" t="s">
-        <v>1601</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -26924,19 +26976,19 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="68" t="s">
         <v>1212</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="68" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="68" t="s">
         <v>1159</v>
       </c>
-      <c r="G37" s="67" t="s">
+      <c r="G37" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="67" t="str">
+      <c r="H37" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27031,7 +27083,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="67" t="str">
+      <c r="D41" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27144,49 +27196,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="68" t="s">
         <v>1191</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="E45" s="68" t="s">
         <v>1190</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="67" t="s">
+      <c r="G45" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="67" t="s">
+      <c r="H45" s="68" t="s">
         <v>1220</v>
       </c>
-      <c r="I45" s="67" t="s">
+      <c r="I45" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="67" t="s">
+      <c r="J45" s="68" t="s">
         <v>1257</v>
       </c>
-      <c r="K45" s="67" t="s">
+      <c r="K45" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="67" t="s">
+      <c r="L45" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="M45" s="67" t="s">
+      <c r="M45" s="68" t="s">
         <v>1217</v>
       </c>
-      <c r="N45" s="67" t="s">
+      <c r="N45" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="67" t="s">
+      <c r="O45" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="P45" s="67" t="s">
+      <c r="P45" s="68" t="s">
         <v>1199</v>
       </c>
-      <c r="Q45" s="67" t="s">
+      <c r="Q45" s="68" t="s">
         <v>1244</v>
       </c>
-      <c r="R45" s="67" t="s">
+      <c r="R45" s="68" t="s">
         <v>1195</v>
       </c>
       <c r="S45" s="21"/>
@@ -27289,19 +27341,19 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="68" t="s">
         <v>1231</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="68" t="s">
         <v>1189</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="68" t="s">
         <v>1187</v>
       </c>
-      <c r="G49" s="67" t="s">
+      <c r="G49" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="67" t="str">
+      <c r="H49" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27390,7 +27442,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="67" t="str">
+      <c r="D53" s="68" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -27482,7 +27534,7 @@
         <v>916</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>758</v>
+        <v>1597</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
@@ -27505,49 +27557,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="68" t="s">
         <v>1214</v>
       </c>
-      <c r="E57" s="67" t="s">
+      <c r="E57" s="68" t="s">
         <v>1238</v>
       </c>
-      <c r="F57" s="67" t="s">
+      <c r="F57" s="68" t="s">
         <v>1157</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="70" t="s">
         <v>1182</v>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="67" t="s">
+      <c r="I57" s="68" t="s">
         <v>1250</v>
       </c>
-      <c r="J57" s="67" t="s">
+      <c r="J57" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="K57" s="67" t="s">
+      <c r="K57" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L57" s="67" t="s">
+      <c r="L57" s="68" t="s">
         <v>299</v>
       </c>
       <c r="M57" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="N57" s="67" t="s">
+      <c r="N57" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="67" t="s">
+      <c r="O57" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="67" t="s">
+      <c r="P57" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" s="67" t="s">
+      <c r="Q57" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="67" t="s">
+      <c r="R57" s="68" t="s">
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
@@ -27581,11 +27633,11 @@
         <v>1447</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>1623</v>
+        <v>1599</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="P58" s="24" t="s">
         <v>1590</v>
@@ -27594,7 +27646,7 @@
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -27630,7 +27682,7 @@
         <v>635</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>1628</v>
+        <v>691</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -27652,19 +27704,19 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="D61" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="67" t="s">
+      <c r="E61" s="68" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="67" t="s">
         <v>1248</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="67" t="s">
+      <c r="H61" s="68" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="41"/>
@@ -27683,13 +27735,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>1590</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1629</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
